--- a/sd-hub-translations.xlsx
+++ b/sd-hub-translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\A1111\extensions\sd-hub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E796D2CA-A6BA-4E62-B9F6-A312F4022BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C760AFBD-3F3D-46BE-9E2C-09B25377CDF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{3ED67704-AF6D-45B2-B79F-70598EE793EA}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="843">
   <si>
     <t>Key</t>
   </si>
@@ -2056,21 +2056,12 @@
     <t>image_info_layout</t>
   </si>
   <si>
-    <t>fullscreen</t>
-  </si>
-  <si>
     <t>side_by_side</t>
   </si>
   <si>
-    <t>Fullscreen</t>
-  </si>
-  <si>
     <t>横並び</t>
   </si>
   <si>
-    <t>フルスクリーン</t>
-  </si>
-  <si>
     <t>apply</t>
   </si>
   <si>
@@ -2110,9 +2101,6 @@
     <t>缩略图大小</t>
   </si>
   <si>
-    <t>全屏</t>
-  </si>
-  <si>
     <t>并排</t>
   </si>
   <si>
@@ -2143,9 +2131,6 @@
     <t>縮圖大小</t>
   </si>
   <si>
-    <t>全螢幕</t>
-  </si>
-  <si>
     <t>並排</t>
   </si>
   <si>
@@ -2182,9 +2167,6 @@
     <t>Tamaño de miniatura</t>
   </si>
   <si>
-    <t>Pantalla completa</t>
-  </si>
-  <si>
     <t>Lado a lado</t>
   </si>
   <si>
@@ -2221,9 +2203,6 @@
     <t>썸네일 크기</t>
   </si>
   <si>
-    <t>전체 화면</t>
-  </si>
-  <si>
     <t>나란히</t>
   </si>
   <si>
@@ -2260,9 +2239,6 @@
     <t>Размер миниатюры</t>
   </si>
   <si>
-    <t>Во весь экран</t>
-  </si>
-  <si>
     <t>Рядом</t>
   </si>
   <si>
@@ -2357,6 +2333,222 @@
   </si>
   <si>
     <t>Макет метаданных</t>
+  </si>
+  <si>
+    <t>1ページあたりに表示する画像数を制限（最小10、最大1000）</t>
+  </si>
+  <si>
+    <t>限制每页显示的图片数量（最少10，最多1000）</t>
+  </si>
+  <si>
+    <t>限制每頁顯示的圖片數量（最少10，最多1000）</t>
+  </si>
+  <si>
+    <t>Limitar imágenes mostradas por página (mín. 10, máx. 1000)</t>
+  </si>
+  <si>
+    <t>페이지당 표시할 이미지 수 제한 (최소 10, 최대 1000)</t>
+  </si>
+  <si>
+    <t>Ограничить количество изображений на странице (мин. 10, макс. 1000)</t>
+  </si>
+  <si>
+    <t>Limit images shown per page (min 10, max 1000)</t>
+  </si>
+  <si>
+    <t>images_per_page_title</t>
+  </si>
+  <si>
+    <t>thumbnail_shape_title</t>
+  </si>
+  <si>
+    <t>Choose how thumbnails are shaped: keep original aspect ratio or crop to square</t>
+  </si>
+  <si>
+    <t>サムネイルの形を選択：元のアスペクト比を維持するか、正方形にトリミングするか</t>
+  </si>
+  <si>
+    <t>选择缩略图的形状：保持原始宽高比或裁剪为正方形</t>
+  </si>
+  <si>
+    <t>選擇縮圖的形狀：保留原始寬高比或裁剪為正方形</t>
+  </si>
+  <si>
+    <t>Elige la forma de las miniaturas: mantener la proporción original o recortar a cuadrado</t>
+  </si>
+  <si>
+    <t>썸네일 모양 선택: 원본 비율 유지 또는 정사각형으로 자르기</t>
+  </si>
+  <si>
+    <t>Выберите форму миниатюр: сохранить исходное соотношение сторон или обрезать до квадрата</t>
+  </si>
+  <si>
+    <t>thumbnail_position_title</t>
+  </si>
+  <si>
+    <t>Set vertical alignment of Square thumbnails</t>
+  </si>
+  <si>
+    <t>正方形サムネイルの縦位置を設定</t>
+  </si>
+  <si>
+    <t>设置正方形缩略图的垂直对齐方式</t>
+  </si>
+  <si>
+    <t>設定正方形縮圖的垂直對齊方式</t>
+  </si>
+  <si>
+    <t>Establecer la alineación vertical de las miniaturas cuadradas</t>
+  </si>
+  <si>
+    <t>정사각형 썸네일의 수직 정렬 설정</t>
+  </si>
+  <si>
+    <t>Установить вертикальное выравнивание квадратных миниатюр</t>
+  </si>
+  <si>
+    <t>Select how thumbnails are arranged: Masonry (free-flowing) or Uniform (space-evenly)</t>
+  </si>
+  <si>
+    <t>thumbnail_layout_title</t>
+  </si>
+  <si>
+    <t>サムネイルの配置方法を選択：マシェリ（自由配置）またはユニフォーム（均等配置）</t>
+  </si>
+  <si>
+    <t>选择缩略图的排列方式：瀑布流（自由流动）或统一网格（均匀间距）</t>
+  </si>
+  <si>
+    <t>選擇縮圖的排列方式：瀑布流（自由排列）或統一網格（平均間距）</t>
+  </si>
+  <si>
+    <t>Selecciona cómo se organizan las miniaturas: Masonry (flujo libre) o Uniforme (espaciado uniforme)</t>
+  </si>
+  <si>
+    <t>썸네일 정렬 방식을 선택하세요: 매슨리(자유 흐름) 또는 유니폼(균일 간격)</t>
+  </si>
+  <si>
+    <t>Выберите способ размещения миниатюр: Мейсонри (свободный поток) или Равномерный (с равными промежутками)</t>
+  </si>
+  <si>
+    <t>Adjust thumbnail size in pixels (min 100, max 512)</t>
+  </si>
+  <si>
+    <t>thumbnail_size_title</t>
+  </si>
+  <si>
+    <t>サムネイルのサイズをピクセルで調整（最小 100、最大 512）</t>
+  </si>
+  <si>
+    <t>调整缩略图大小（以像素为单位，最小 100，最大 512）</t>
+  </si>
+  <si>
+    <t>調整縮圖大小（單位為像素，最小 100，最大 512）</t>
+  </si>
+  <si>
+    <t>Ajusta el tamaño de las miniaturas en píxeles (mín. 100, máx. 512)</t>
+  </si>
+  <si>
+    <t>썸네일 크기를 픽셀 단위로 조절 (최소 100, 최대 512)</t>
+  </si>
+  <si>
+    <t>Настройте размер миниатюр в пикселях (мин. 100, макс. 512)</t>
+  </si>
+  <si>
+    <t>show_filename_title</t>
+  </si>
+  <si>
+    <t>show_buttons_title</t>
+  </si>
+  <si>
+    <t>image_info_layout_title</t>
+  </si>
+  <si>
+    <t>Toggle filename visibility: always show or only on hover</t>
+  </si>
+  <si>
+    <t>ファイル名の表示を切り替え：常に表示するか、ホバー時のみ表示</t>
+  </si>
+  <si>
+    <t>切换文件名可见性：始终显示或仅在悬停时显示</t>
+  </si>
+  <si>
+    <t>切換檔名可見性：總是顯示或僅在滑鼠懸停時顯示</t>
+  </si>
+  <si>
+    <t>Alternar visibilidad del nombre de archivo: mostrar siempre o solo al pasar el cursor</t>
+  </si>
+  <si>
+    <t>파일 이름 표시 전환: 항상 표시하거나 마우스 오버 시에만 표시</t>
+  </si>
+  <si>
+    <t>Переключить видимость имени файла: всегда показывать или только при наведении</t>
+  </si>
+  <si>
+    <t>Toggle image button visibility: always show or only on hover</t>
+  </si>
+  <si>
+    <t>画像ボタンの表示を切り替え：常に表示するか、ホバー時のみ表示</t>
+  </si>
+  <si>
+    <t>切换图片按钮可见性：始终显示或仅在悬停时显示</t>
+  </si>
+  <si>
+    <t>切換圖片按鈕可見性：總是顯示或僅在滑鼠懸停時顯示</t>
+  </si>
+  <si>
+    <t>Alternar visibilidad de botones de imagen: mostrar siempre o solo al pasar el cursor</t>
+  </si>
+  <si>
+    <t>이미지 버튼 표시 전환: 항상 표시하거나 마우스 오버 시에만 표시</t>
+  </si>
+  <si>
+    <t>Переключить видимость кнопок изображения: всегда показывать или только при наведении</t>
+  </si>
+  <si>
+    <t>Choose how image metadata info is displayed: full width or side by side</t>
+  </si>
+  <si>
+    <t>画像メタデータ情報の表示方法を選択 全幅表示かサイドバイサイド</t>
+  </si>
+  <si>
+    <t>选择图像元数据信息的显示方式 是全宽还是并排显示</t>
+  </si>
+  <si>
+    <t>選擇圖像中繼資料資訊的顯示方式 是全寬還是並排顯示</t>
+  </si>
+  <si>
+    <t>Elige cómo se muestra la información de metadatos de la imagen ancho completo o lado a lado</t>
+  </si>
+  <si>
+    <t>이미지 메타데이터 정보를 표시하는 방식을 선택 전체 너비 또는 나란히</t>
+  </si>
+  <si>
+    <t>Выберите способ отображения метаданных изображения полностью по ширине или рядом</t>
+  </si>
+  <si>
+    <t>full_width</t>
+  </si>
+  <si>
+    <t>Full width</t>
+  </si>
+  <si>
+    <t>全幅</t>
+  </si>
+  <si>
+    <t>全宽</t>
+  </si>
+  <si>
+    <t>全寬</t>
+  </si>
+  <si>
+    <t>Ancho completo</t>
+  </si>
+  <si>
+    <t>전체 너비</t>
+  </si>
+  <si>
+    <t>Полная ширина</t>
   </si>
 </sst>
 </file>
@@ -3268,22 +3460,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780E0960-BCEF-42B8-BB82-3303C65E8F3F}">
-  <dimension ref="A1:H113"/>
+  <dimension ref="A1:H122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="H109" sqref="H109"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51" customWidth="1"/>
-    <col min="4" max="4" width="41" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="56.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="60.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -5523,7 +5709,7 @@
     </row>
     <row r="95" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="14" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -5557,7 +5743,7 @@
         <v>645</v>
       </c>
       <c r="B97" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="C97" t="s">
         <v>646</v>
@@ -5583,25 +5769,25 @@
         <v>652</v>
       </c>
       <c r="B98" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="C98" t="s">
         <v>653</v>
       </c>
       <c r="D98" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="E98" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="F98" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="G98" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="H98" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -5609,25 +5795,25 @@
         <v>654</v>
       </c>
       <c r="B99" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="C99" t="s">
         <v>655</v>
       </c>
       <c r="D99" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="E99" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="F99" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="G99" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="H99" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -5647,13 +5833,13 @@
         <v>658</v>
       </c>
       <c r="F100" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="G100" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="H100" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -5661,25 +5847,25 @@
         <v>660</v>
       </c>
       <c r="B101" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="C101" t="s">
         <v>659</v>
       </c>
       <c r="D101" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="E101" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F101" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="G101" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="H101" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -5693,19 +5879,19 @@
         <v>663</v>
       </c>
       <c r="D102" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="E102" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="F102" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="G102" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="H102" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -5719,19 +5905,19 @@
         <v>664</v>
       </c>
       <c r="D103" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="E103" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="F103" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="G103" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="H103" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -5739,25 +5925,25 @@
         <v>667</v>
       </c>
       <c r="B104" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="C104" t="s">
         <v>668</v>
       </c>
       <c r="D104" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="E104" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="F104" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="G104" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="H104" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -5771,19 +5957,19 @@
         <v>673</v>
       </c>
       <c r="D105" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="E105" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="F105" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="G105" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="H105" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -5797,19 +5983,19 @@
         <v>674</v>
       </c>
       <c r="D106" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E106" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="F106" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="G106" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="H106" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -5817,77 +6003,77 @@
         <v>675</v>
       </c>
       <c r="B107" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="C107" t="s">
         <v>676</v>
       </c>
       <c r="D107" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="E107" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="F107" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="G107" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="H107" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="B108" t="s">
+        <v>751</v>
+      </c>
+      <c r="C108" t="s">
+        <v>753</v>
+      </c>
+      <c r="D108" t="s">
+        <v>755</v>
+      </c>
+      <c r="E108" t="s">
+        <v>757</v>
+      </c>
+      <c r="F108" t="s">
+        <v>762</v>
+      </c>
+      <c r="G108" t="s">
         <v>759</v>
       </c>
-      <c r="C108" t="s">
-        <v>761</v>
-      </c>
-      <c r="D108" t="s">
+      <c r="H108" t="s">
         <v>763</v>
-      </c>
-      <c r="E108" t="s">
-        <v>765</v>
-      </c>
-      <c r="F108" t="s">
-        <v>770</v>
-      </c>
-      <c r="G108" t="s">
-        <v>767</v>
-      </c>
-      <c r="H108" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="B109" t="s">
+        <v>752</v>
+      </c>
+      <c r="C109" t="s">
+        <v>754</v>
+      </c>
+      <c r="D109" t="s">
+        <v>756</v>
+      </c>
+      <c r="E109" t="s">
+        <v>758</v>
+      </c>
+      <c r="F109" t="s">
+        <v>761</v>
+      </c>
+      <c r="G109" t="s">
         <v>760</v>
       </c>
-      <c r="C109" t="s">
-        <v>762</v>
-      </c>
-      <c r="D109" t="s">
+      <c r="H109" t="s">
         <v>764</v>
-      </c>
-      <c r="E109" t="s">
-        <v>766</v>
-      </c>
-      <c r="F109" t="s">
-        <v>769</v>
-      </c>
-      <c r="G109" t="s">
-        <v>768</v>
-      </c>
-      <c r="H109" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -5895,103 +6081,311 @@
         <v>677</v>
       </c>
       <c r="B110" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="C110" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="D110" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="E110" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="F110" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="G110" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="H110" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
-        <v>678</v>
+        <v>835</v>
       </c>
       <c r="B111" t="s">
-        <v>680</v>
+        <v>836</v>
       </c>
       <c r="C111" t="s">
-        <v>682</v>
+        <v>837</v>
       </c>
       <c r="D111" t="s">
-        <v>696</v>
+        <v>838</v>
       </c>
       <c r="E111" t="s">
-        <v>707</v>
+        <v>839</v>
       </c>
       <c r="F111" t="s">
-        <v>720</v>
+        <v>840</v>
       </c>
       <c r="G111" t="s">
-        <v>733</v>
+        <v>841</v>
       </c>
       <c r="H111" t="s">
-        <v>746</v>
+        <v>842</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
+        <v>678</v>
+      </c>
+      <c r="B112" t="s">
+        <v>750</v>
+      </c>
+      <c r="C112" t="s">
         <v>679</v>
       </c>
-      <c r="B112" t="s">
-        <v>758</v>
-      </c>
-      <c r="C112" t="s">
-        <v>681</v>
-      </c>
       <c r="D112" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="E112" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="F112" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="G112" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="H112" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="B113" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C113" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="D113" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="E113" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="F113" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="G113" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="H113" t="s">
-        <v>748</v>
+        <v>740</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="10" t="s">
+        <v>778</v>
+      </c>
+      <c r="B115" t="s">
+        <v>777</v>
+      </c>
+      <c r="C115" t="s">
+        <v>771</v>
+      </c>
+      <c r="D115" t="s">
+        <v>772</v>
+      </c>
+      <c r="E115" t="s">
+        <v>773</v>
+      </c>
+      <c r="F115" t="s">
+        <v>774</v>
+      </c>
+      <c r="G115" t="s">
+        <v>775</v>
+      </c>
+      <c r="H115" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="10" t="s">
+        <v>779</v>
+      </c>
+      <c r="B116" t="s">
+        <v>780</v>
+      </c>
+      <c r="C116" t="s">
+        <v>781</v>
+      </c>
+      <c r="D116" t="s">
+        <v>782</v>
+      </c>
+      <c r="E116" t="s">
+        <v>783</v>
+      </c>
+      <c r="F116" t="s">
+        <v>784</v>
+      </c>
+      <c r="G116" t="s">
+        <v>785</v>
+      </c>
+      <c r="H116" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="10" t="s">
+        <v>787</v>
+      </c>
+      <c r="B117" t="s">
+        <v>788</v>
+      </c>
+      <c r="C117" t="s">
+        <v>789</v>
+      </c>
+      <c r="D117" t="s">
+        <v>790</v>
+      </c>
+      <c r="E117" t="s">
+        <v>791</v>
+      </c>
+      <c r="F117" t="s">
+        <v>792</v>
+      </c>
+      <c r="G117" t="s">
+        <v>793</v>
+      </c>
+      <c r="H117" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="10" t="s">
+        <v>796</v>
+      </c>
+      <c r="B118" t="s">
+        <v>795</v>
+      </c>
+      <c r="C118" t="s">
+        <v>797</v>
+      </c>
+      <c r="D118" t="s">
+        <v>798</v>
+      </c>
+      <c r="E118" t="s">
+        <v>799</v>
+      </c>
+      <c r="F118" t="s">
+        <v>800</v>
+      </c>
+      <c r="G118" t="s">
+        <v>801</v>
+      </c>
+      <c r="H118" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="10" t="s">
+        <v>804</v>
+      </c>
+      <c r="B119" t="s">
+        <v>803</v>
+      </c>
+      <c r="C119" t="s">
+        <v>805</v>
+      </c>
+      <c r="D119" t="s">
+        <v>806</v>
+      </c>
+      <c r="E119" t="s">
+        <v>807</v>
+      </c>
+      <c r="F119" t="s">
+        <v>808</v>
+      </c>
+      <c r="G119" t="s">
+        <v>809</v>
+      </c>
+      <c r="H119" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="10" t="s">
+        <v>811</v>
+      </c>
+      <c r="B120" t="s">
+        <v>814</v>
+      </c>
+      <c r="C120" t="s">
+        <v>815</v>
+      </c>
+      <c r="D120" t="s">
+        <v>816</v>
+      </c>
+      <c r="E120" t="s">
+        <v>817</v>
+      </c>
+      <c r="F120" t="s">
+        <v>818</v>
+      </c>
+      <c r="G120" t="s">
+        <v>819</v>
+      </c>
+      <c r="H120" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="10" t="s">
+        <v>812</v>
+      </c>
+      <c r="B121" t="s">
+        <v>821</v>
+      </c>
+      <c r="C121" t="s">
+        <v>822</v>
+      </c>
+      <c r="D121" t="s">
+        <v>823</v>
+      </c>
+      <c r="E121" t="s">
+        <v>824</v>
+      </c>
+      <c r="F121" t="s">
+        <v>825</v>
+      </c>
+      <c r="G121" t="s">
+        <v>826</v>
+      </c>
+      <c r="H121" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="10" t="s">
+        <v>813</v>
+      </c>
+      <c r="B122" t="s">
+        <v>828</v>
+      </c>
+      <c r="C122" t="s">
+        <v>829</v>
+      </c>
+      <c r="D122" t="s">
+        <v>830</v>
+      </c>
+      <c r="E122" t="s">
+        <v>831</v>
+      </c>
+      <c r="F122" t="s">
+        <v>832</v>
+      </c>
+      <c r="G122" t="s">
+        <v>833</v>
+      </c>
+      <c r="H122" t="s">
+        <v>834</v>
       </c>
     </row>
   </sheetData>

--- a/sd-hub-translations.xlsx
+++ b/sd-hub-translations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\A1111\extensions\sd-hub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\A1111\extensions\sd-hub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C760AFBD-3F3D-46BE-9E2C-09B25377CDF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C47C30A-51B3-4308-9340-CE6826B71B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{3ED67704-AF6D-45B2-B79F-70598EE793EA}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="754">
   <si>
     <t>Key</t>
   </si>
@@ -37,15 +37,9 @@
     <t>zh-TW</t>
   </si>
   <si>
-    <t>es</t>
-  </si>
-  <si>
     <t>ko</t>
   </si>
   <si>
-    <t>ru</t>
-  </si>
-  <si>
     <t>auto_upload_to</t>
   </si>
   <si>
@@ -61,15 +55,9 @@
     <t>自動上傳到</t>
   </si>
   <si>
-    <t>Carga automática a</t>
-  </si>
-  <si>
     <t>자동 업로드 대상</t>
   </si>
   <si>
-    <t>Авто загрузка на</t>
-  </si>
-  <si>
     <t>enabled</t>
   </si>
   <si>
@@ -85,15 +73,9 @@
     <t>已啟用</t>
   </si>
   <si>
-    <t>Habilitado</t>
-  </si>
-  <si>
     <t>사용함</t>
   </si>
   <si>
-    <t>Включено</t>
-  </si>
-  <si>
     <t>click_to_enable</t>
   </si>
   <si>
@@ -109,15 +91,9 @@
     <t>點擊啟用</t>
   </si>
   <si>
-    <t>Haz clic para habilitar</t>
-  </si>
-  <si>
     <t>클릭하여 활성화</t>
   </si>
   <si>
-    <t>Нажмите для включения</t>
-  </si>
-  <si>
     <t>hidden</t>
   </si>
   <si>
@@ -133,15 +109,9 @@
     <t>隱藏</t>
   </si>
   <si>
-    <t>Oculto</t>
-  </si>
-  <si>
     <t>숨김</t>
   </si>
   <si>
-    <t>Скрыто</t>
-  </si>
-  <si>
     <t>public</t>
   </si>
   <si>
@@ -157,39 +127,24 @@
     <t>公開</t>
   </si>
   <si>
-    <t>Público</t>
-  </si>
-  <si>
     <t>공개</t>
   </si>
   <si>
     <t>真</t>
   </si>
   <si>
-    <t>Verdadero</t>
-  </si>
-  <si>
     <t>참</t>
   </si>
   <si>
-    <t>Правда</t>
-  </si>
-  <si>
     <t>偽</t>
   </si>
   <si>
     <t>假</t>
   </si>
   <si>
-    <t>Falso</t>
-  </si>
-  <si>
     <t>거짓</t>
   </si>
   <si>
-    <t>Ложь</t>
-  </si>
-  <si>
     <t>imgchest_api_key</t>
   </si>
   <si>
@@ -202,15 +157,9 @@
     <t>imgchest API 金鑰</t>
   </si>
   <si>
-    <t>clave API de imgchest</t>
-  </si>
-  <si>
     <t>imgchest API 키</t>
   </si>
   <si>
-    <t>Ключ API imgchest</t>
-  </si>
-  <si>
     <t>item</t>
   </si>
   <si>
@@ -223,24 +172,12 @@
     <t>項</t>
   </si>
   <si>
-    <t>artículo</t>
-  </si>
-  <si>
     <t>개</t>
   </si>
   <si>
-    <t>предмет</t>
-  </si>
-  <si>
     <t>items</t>
   </si>
   <si>
-    <t>artículos</t>
-  </si>
-  <si>
-    <t>предметы</t>
-  </si>
-  <si>
     <t>image_viewer</t>
   </si>
   <si>
@@ -256,15 +193,9 @@
     <t>圖片檢視器</t>
   </si>
   <si>
-    <t>Visor de imágenes</t>
-  </si>
-  <si>
     <t>이미지 뷰어</t>
   </si>
   <si>
-    <t>Просмотр изображений</t>
-  </si>
-  <si>
     <t>uploader</t>
   </si>
   <si>
@@ -280,15 +211,9 @@
     <t>上傳器</t>
   </si>
   <si>
-    <t>Cargador</t>
-  </si>
-  <si>
     <t>업로더</t>
   </si>
   <si>
-    <t>Загрузчик</t>
-  </si>
-  <si>
     <t>open_new_tab</t>
   </si>
   <si>
@@ -304,15 +229,9 @@
     <t>在新分頁開啟圖片</t>
   </si>
   <si>
-    <t>'Abrir imagen en nueva pestaña</t>
-  </si>
-  <si>
     <t>새 탭에서 이미지 열기</t>
   </si>
   <si>
-    <t>Открыть изображение в новой вкладке</t>
-  </si>
-  <si>
     <t>download</t>
   </si>
   <si>
@@ -328,15 +247,9 @@
     <t>下載</t>
   </si>
   <si>
-    <t>Descargar</t>
-  </si>
-  <si>
     <t>다운로드</t>
   </si>
   <si>
-    <t>Скачать</t>
-  </si>
-  <si>
     <t>image_info</t>
   </si>
   <si>
@@ -352,15 +265,9 @@
     <t>圖片訊息</t>
   </si>
   <si>
-    <t>Información de la imagen</t>
-  </si>
-  <si>
     <t>이미지 정보</t>
   </si>
   <si>
-    <t>Информация о изображении</t>
-  </si>
-  <si>
     <t>send_to</t>
   </si>
   <si>
@@ -376,15 +283,9 @@
     <t>發送到...</t>
   </si>
   <si>
-    <t>Enviar a...</t>
-  </si>
-  <si>
     <t>보내기...</t>
   </si>
   <si>
-    <t>Отправить в...</t>
-  </si>
-  <si>
     <t>delete</t>
   </si>
   <si>
@@ -400,15 +301,9 @@
     <t>刪除</t>
   </si>
   <si>
-    <t>Eliminar</t>
-  </si>
-  <si>
     <t>삭제</t>
   </si>
   <si>
-    <t>Удалить</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
@@ -421,15 +316,9 @@
     <t>是</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>예</t>
   </si>
   <si>
-    <t>Да</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
@@ -445,9 +334,6 @@
     <t>아니요</t>
   </si>
   <si>
-    <t>Нет</t>
-  </si>
-  <si>
     <t>load</t>
   </si>
   <si>
@@ -463,15 +349,9 @@
     <t>載入</t>
   </si>
   <si>
-    <t>Cargar</t>
-  </si>
-  <si>
     <t>불러오기</t>
   </si>
   <si>
-    <t>Загрузить</t>
-  </si>
-  <si>
     <t>save</t>
   </si>
   <si>
@@ -487,15 +367,9 @@
     <t>儲存</t>
   </si>
   <si>
-    <t>Guardar</t>
-  </si>
-  <si>
     <t>저장</t>
   </si>
   <si>
-    <t>Сохранить</t>
-  </si>
-  <si>
     <t>// tab title</t>
   </si>
   <si>
@@ -514,15 +388,9 @@
     <t>下載命令中心</t>
   </si>
   <si>
-    <t>Centro de comandos de descarga</t>
-  </si>
-  <si>
     <t>다운로드 명령 센터</t>
   </si>
   <si>
-    <t>Центр команд загрузки</t>
-  </si>
-  <si>
     <t>upload_to_huggingface</t>
   </si>
   <si>
@@ -538,15 +406,9 @@
     <t>上傳到Huggingface</t>
   </si>
   <si>
-    <t>Subir a Huggingface</t>
-  </si>
-  <si>
     <t>Huggingface에 업로드</t>
   </si>
   <si>
-    <t>Загрузить на Huggingface</t>
-  </si>
-  <si>
     <t>huggingface_token_read</t>
   </si>
   <si>
@@ -568,15 +430,9 @@
     <t>Civitai API 金鑰</t>
   </si>
   <si>
-    <t>Clave API de Civitai</t>
-  </si>
-  <si>
     <t>Civitai API 키</t>
   </si>
   <si>
-    <t>API ключ Civitai</t>
-  </si>
-  <si>
     <t>civitai_api_key_placeholder</t>
   </si>
   <si>
@@ -619,15 +475,9 @@
     <t>擷取 (網絡爬取)</t>
   </si>
   <si>
-    <t>Extraer datos</t>
-  </si>
-  <si>
     <t>스크래핑</t>
   </si>
   <si>
-    <t>Скрапинг</t>
-  </si>
-  <si>
     <t>insert_txt</t>
   </si>
   <si>
@@ -643,15 +493,9 @@
     <t>插入TXT檔案</t>
   </si>
   <si>
-    <t>Insertar archivo TXT</t>
-  </si>
-  <si>
     <t>TXT 파일 삽입</t>
   </si>
   <si>
-    <t>Вставить файл TXT</t>
-  </si>
-  <si>
     <t>Downloader</t>
   </si>
   <si>
@@ -664,9 +508,6 @@
     <t>下載器</t>
   </si>
   <si>
-    <t>Descargador</t>
-  </si>
-  <si>
     <t>다운로더</t>
   </si>
   <si>
@@ -682,15 +523,9 @@
     <t>封存工具</t>
   </si>
   <si>
-    <t>Archivador</t>
-  </si>
-  <si>
     <t>아카이버</t>
   </si>
   <si>
-    <t>Архиватор</t>
-  </si>
-  <si>
     <t>Text Editor</t>
   </si>
   <si>
@@ -703,15 +538,9 @@
     <t>文字編輯器</t>
   </si>
   <si>
-    <t>Editor de texto</t>
-  </si>
-  <si>
     <t>텍스트 편집기</t>
   </si>
   <si>
-    <t>Текстовый редактор</t>
-  </si>
-  <si>
     <t>Shell</t>
   </si>
   <si>
@@ -724,15 +553,9 @@
     <t>命令列</t>
   </si>
   <si>
-    <t>Terminal</t>
-  </si>
-  <si>
     <t>쉘</t>
   </si>
   <si>
-    <t>Консоль</t>
-  </si>
-  <si>
     <t>Gallery</t>
   </si>
   <si>
@@ -745,15 +568,9 @@
     <t>畫廊</t>
   </si>
   <si>
-    <t>Galería</t>
-  </si>
-  <si>
     <t>갤러리</t>
   </si>
   <si>
-    <t>Галерея</t>
-  </si>
-  <si>
     <t>// tab button</t>
   </si>
   <si>
@@ -790,9 +607,6 @@
     <t>上傳</t>
   </si>
   <si>
-    <t>Subir</t>
-  </si>
-  <si>
     <t>업로드</t>
   </si>
   <si>
@@ -811,15 +625,9 @@
     <t>標籤列表</t>
   </si>
   <si>
-    <t>Lista de etiquetas</t>
-  </si>
-  <si>
     <t>태그 목록</t>
   </si>
   <si>
-    <t>Список тегов</t>
-  </si>
-  <si>
     <t>username</t>
   </si>
   <si>
@@ -835,15 +643,9 @@
     <t>使用者名稱</t>
   </si>
   <si>
-    <t>Nombre de usuario</t>
-  </si>
-  <si>
     <t>사용자 이름</t>
   </si>
   <si>
-    <t>Имя пользователя</t>
-  </si>
-  <si>
     <t>repository</t>
   </si>
   <si>
@@ -859,15 +661,9 @@
     <t>儲存庫</t>
   </si>
   <si>
-    <t>Repositorio</t>
-  </si>
-  <si>
     <t>저장소</t>
   </si>
   <si>
-    <t>Репозиторий</t>
-  </si>
-  <si>
     <t>branch</t>
   </si>
   <si>
@@ -880,15 +676,9 @@
     <t>分支</t>
   </si>
   <si>
-    <t>Rama</t>
-  </si>
-  <si>
     <t>브랜치</t>
   </si>
   <si>
-    <t>Ветка</t>
-  </si>
-  <si>
     <t>visibility</t>
   </si>
   <si>
@@ -904,18 +694,9 @@
     <t>可見性</t>
   </si>
   <si>
-    <t>Visibilidad</t>
-  </si>
-  <si>
     <t>가시성</t>
   </si>
   <si>
-    <t>Видимость</t>
-  </si>
-  <si>
-    <t>Публичный</t>
-  </si>
-  <si>
     <t>private</t>
   </si>
   <si>
@@ -931,15 +712,9 @@
     <t>私人</t>
   </si>
   <si>
-    <t>Privado</t>
-  </si>
-  <si>
     <t>비공개</t>
   </si>
   <si>
-    <t>Приватный</t>
-  </si>
-  <si>
     <t>public2</t>
   </si>
   <si>
@@ -961,15 +736,9 @@
     <t>ZIP輸出</t>
   </si>
   <si>
-    <t>Salida ZIP</t>
-  </si>
-  <si>
     <t>ZIP 출력</t>
   </si>
   <si>
-    <t>ZIP Выход</t>
-  </si>
-  <si>
     <t>zipoutputs_input</t>
   </si>
   <si>
@@ -985,15 +754,9 @@
     <t>ZIP名稱 (如果為空則為ZipOutputs)</t>
   </si>
   <si>
-    <t>Nombre ZIP (por defecto ZipOutputs si está vacío)</t>
-  </si>
-  <si>
     <t>ZIP 이름 (비어 있으면 ZipOutputs)</t>
   </si>
   <si>
-    <t>Имя ZIP (по умолчанию ZipOutputs, если пусто)</t>
-  </si>
-  <si>
     <t>zipoutputs_output</t>
   </si>
   <si>
@@ -1009,15 +772,9 @@
     <t>ZIP輸出路徑 (如果為空則為WebUI根目錄)</t>
   </si>
   <si>
-    <t>Ruta de salida ZIP (por defecto raíz de WebUI si está vacío)</t>
-  </si>
-  <si>
     <t>ZIP 출력 경로 (비어 있으면 WebUI 루트)</t>
   </si>
   <si>
-    <t>Путь вывода ZIP (по умолчанию корень WebUI, если пусто)</t>
-  </si>
-  <si>
     <t>makedir</t>
   </si>
   <si>
@@ -1033,15 +790,9 @@
     <t>建立目錄</t>
   </si>
   <si>
-    <t>Crear directorio</t>
-  </si>
-  <si>
     <t>디렉터리 생성</t>
   </si>
   <si>
-    <t>Создать каталог</t>
-  </si>
-  <si>
     <t>arc_title</t>
   </si>
   <si>
@@ -1057,15 +808,9 @@
     <t>格式</t>
   </si>
   <si>
-    <t>Formato</t>
-  </si>
-  <si>
     <t>포맷</t>
   </si>
   <si>
-    <t>Формат</t>
-  </si>
-  <si>
     <t>radio_split</t>
   </si>
   <si>
@@ -1081,15 +826,9 @@
     <t>分割依據:</t>
   </si>
   <si>
-    <t>Dividir por:</t>
-  </si>
-  <si>
     <t>분할 기준:</t>
   </si>
   <si>
-    <t>Разделить по:</t>
-  </si>
-  <si>
     <t>none</t>
   </si>
   <si>
@@ -1105,9 +844,6 @@
     <t>無</t>
   </si>
   <si>
-    <t>Ninguno</t>
-  </si>
-  <si>
     <t>없음</t>
   </si>
   <si>
@@ -1126,15 +862,9 @@
     <t>名稱</t>
   </si>
   <si>
-    <t>Nombre</t>
-  </si>
-  <si>
     <t>이름</t>
   </si>
   <si>
-    <t>Имя</t>
-  </si>
-  <si>
     <t>input_path</t>
   </si>
   <si>
@@ -1150,15 +880,9 @@
     <t>輸入路徑</t>
   </si>
   <si>
-    <t>Ruta de entrada</t>
-  </si>
-  <si>
     <t>입력 경로</t>
   </si>
   <si>
-    <t>Путь ввода</t>
-  </si>
-  <si>
     <t>output_path</t>
   </si>
   <si>
@@ -1174,15 +898,9 @@
     <t>輸出路徑</t>
   </si>
   <si>
-    <t>Ruta de salida</t>
-  </si>
-  <si>
     <t>출력 경로</t>
   </si>
   <si>
-    <t>Путь вывода</t>
-  </si>
-  <si>
     <t>arc_button</t>
   </si>
   <si>
@@ -1192,12 +910,6 @@
     <t>Extract</t>
   </si>
   <si>
-    <t>Extraer</t>
-  </si>
-  <si>
-    <t>Извлечь</t>
-  </si>
-  <si>
     <t>extr_button</t>
   </si>
   <si>
@@ -1219,15 +931,9 @@
     <t>SD-Hub 標籤</t>
   </si>
   <si>
-    <t>Etiquetas SD-Hub</t>
-  </si>
-  <si>
     <t>SD-Hub 태그</t>
   </si>
   <si>
-    <t>Теги SD-Hub</t>
-  </si>
-  <si>
     <t>webui_paths</t>
   </si>
   <si>
@@ -1243,15 +949,9 @@
     <t>WebUI 路徑</t>
   </si>
   <si>
-    <t>Rutas WebUI</t>
-  </si>
-  <si>
     <t>WebUI 경로</t>
   </si>
   <si>
-    <t>Пути WebUI</t>
-  </si>
-  <si>
     <t>// tag frame</t>
   </si>
   <si>
@@ -1270,15 +970,9 @@
     <t>檔案路徑</t>
   </si>
   <si>
-    <t>Ruta del archivo</t>
-  </si>
-  <si>
     <t>파일 경로</t>
   </si>
   <si>
-    <t>Путь к файлу</t>
-  </si>
-  <si>
     <t>shell_cmd</t>
   </si>
   <si>
@@ -1294,15 +988,9 @@
     <t>按 Shift + Enter 執行命令</t>
   </si>
   <si>
-    <t>Presiona Shift + Enter para ejecutar el comando</t>
-  </si>
-  <si>
     <t>Shift + Enter를 눌러 명령 실행</t>
   </si>
   <si>
-    <t>Нажмите Shift + Enter для выполнения команды</t>
-  </si>
-  <si>
     <t>downloader_tab_info</t>
   </si>
   <si>
@@ -1315,15 +1003,9 @@
     <t>要從私人存儲庫下載，請輸入具有 &lt;strong&gt;READ&lt;/strong&gt; 權限的 &lt;strong&gt;Huggingface 令牌&lt;/strong&gt;。您可以在&lt;a href="https://huggingface.co/settings/tokens" class="sdhub-link" target="_blank"&gt;此處&lt;/a&gt;獲取。&lt;br&gt; 如果遇到授權失敗錯誤，請輸入您的 &lt;strong&gt;Civitai API 金鑰&lt;/strong&gt;。獲取密鑰請訪問 &lt;a href="https://civitai.com/user/account" class="sdhub-link" target="_blank"&gt;此處&lt;/a&gt;&lt;br&gt; 保存 = 在重新加載 UI 或 WebUI 啟動時自動加載令牌&lt;br&gt; 加載 = 載入令牌&lt;br&gt; 支持的域: &lt;strong&gt;•&lt;/strong&gt; &lt;a class="sdhub-nonlink"&gt;Civitai&lt;/a&gt; &lt;strong&gt;•&lt;/strong&gt; &lt;a class="sdhub-nonlink"&gt;Huggingface&lt;/a&gt; &lt;strong&gt;•&lt;/strong&gt; &lt;a class="sdhub-nonlink"&gt;Github&lt;/a&gt; &lt;strong&gt;•&lt;/strong&gt; &lt;a class="sdhub-nonlink"&gt;Drive.Google&lt;/a&gt; &lt;strong&gt;•&lt;/strong&gt;&lt;br&gt; 使用方法請參閱 &lt;a href="https://github.com/gutris1/sd-hub/blob/master/README.md#downloader" class="sdhub-link" target="_blank"&gt;此處&lt;/a&gt;</t>
   </si>
   <si>
-    <t>Introduce tu &lt;strong&gt;Token de Huggingface&lt;/strong&gt; con el rol &lt;strong&gt;READ&lt;/strong&gt; para descargar desde tu repositorio privado. Obtén uno &lt;a href="https://huggingface.co/settings/tokens" class="sdhub-link" target="_blank"&gt;aquí&lt;/a&gt;&lt;br&gt; Introduce tu &lt;strong&gt;Clave API de Civitai&lt;/strong&gt; si encuentras un error de autorización fallida. Obtén tu clave &lt;a href="https://civitai.com/user/account" class="sdhub-link" target="_blank"&gt;aquí&lt;/a&gt;&lt;br&gt; Guardar = Cargar automáticamente el token al recargar la UI o iniciar WebUI&lt;br&gt; Cargar = Cargar token&lt;br&gt; Dominios compatibles: &lt;strong&gt;•&lt;/strong&gt; &lt;a class="sdhub-nonlink"&gt;Civitai&lt;/a&gt; &lt;strong&gt;•&lt;/strong&gt; &lt;a class="sdhub-nonlink"&gt;Huggingface&lt;/a&gt; &lt;strong&gt;•&lt;/strong&gt; &lt;a class="sdhub-nonlink"&gt;Github&lt;/a&gt; &lt;strong&gt;•&lt;/strong&gt; &lt;a class="sdhub-nonlink"&gt;Drive.Google&lt;/a&gt; &lt;strong&gt;•&lt;/strong&gt;&lt;br&gt; Ver uso &lt;a href="https://github.com/gutris1/sd-hub/blob/master/README.md#downloader" class="sdhub-link" target="_blank"&gt;aquí&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>개인 저장소에서 다운로드하려면 &lt;strong&gt;READ&lt;/strong&gt; 권한이 있는 &lt;strong&gt;Huggingface 토큰&lt;/strong&gt;을 입력하세요. &lt;a href="https://huggingface.co/settings/tokens" class="sdhub-link" target="_blank"&gt;여기&lt;/a&gt;에서 받을 수 있습니다.&lt;br&gt; 인증 실패 오류가 발생하면 &lt;strong&gt;Civitai API 키&lt;/strong&gt;를 입력하세요. API 키를 받으려면 &lt;a href="https://civitai.com/user/account" class="sdhub-link" target="_blank"&gt;여기&lt;/a&gt;를 방문하세요.&lt;br&gt; 저장 = UI를 다시 로드하거나 WebUI를 실행할 때 자동으로 토큰을 불러옵니다.&lt;br&gt; 불러오기 = 토큰 불러오기&lt;br&gt; 지원 도메인: &lt;strong&gt;•&lt;/strong&gt; &lt;a class="sdhub-nonlink"&gt;Civitai&lt;/a&gt; &lt;strong&gt;•&lt;/strong&gt; &lt;a class="sdhub-nonlink"&gt;Huggingface&lt;/a&gt; &lt;strong&gt;•&lt;/strong&gt; &lt;a class="sdhub-nonlink"&gt;Github&lt;/a&gt; &lt;strong&gt;•&lt;/strong&gt; &lt;a class="sdhub-nonlink"&gt;Drive.Google&lt;/a&gt; &lt;strong&gt;•&lt;/strong&gt;&lt;br&gt; 사용 방법은 &lt;a href="https://github.com/gutris1/sd-hub/blob/master/README.md#downloader" class="sdhub-link" target="_blank"&gt;여기&lt;/a&gt;에서 확인하세요.</t>
   </si>
   <si>
-    <t>Для загрузки из вашего личного репозитория введите &lt;strong&gt;Huggingface Token&lt;/strong&gt; с ролью &lt;strong&gt;READ&lt;/strong&gt;. Получите его &lt;a href="https://huggingface.co/settings/tokens" class="sdhub-link" target="_blank"&gt;здесь&lt;/a&gt;.&lt;br&gt; Введите &lt;strong&gt;Civitai API Key&lt;/strong&gt;, если появляется ошибка "Ошибка авторизации". Получить ключ можно &lt;a href="https://civitai.com/user/account" class="sdhub-link" target="_blank"&gt;здесь&lt;/a&gt;.&lt;br&gt; Сохранить = Автоматическая загрузка токена при перезапуске UI или WebUI.&lt;br&gt; Загрузить = Загрузить токен&lt;br&gt; Поддерживаемые домены: &lt;strong&gt;•&lt;/strong&gt; &lt;a class="sdhub-nonlink"&gt;Civitai&lt;/a&gt; &lt;strong&gt;•&lt;/strong&gt; &lt;a class="sdhub-nonlink"&gt;Huggingface&lt;/a&gt; &lt;strong&gt;•&lt;/strong&gt; &lt;a class="sdhub-nonlink"&gt;Github&lt;/a&gt; &lt;strong&gt;•&lt;/strong&gt; &lt;a class="sdhub-nonlink"&gt;Drive.Google&lt;/a&gt; &lt;strong&gt;•&lt;/strong&gt;&lt;br&gt; Инструкции по использованию &lt;a href="https://github.com/gutris1/sd-hub/blob/master/README.md#downloader" class="sdhub-link" target="_blank"&gt;здесь&lt;/a&gt;.</t>
-  </si>
-  <si>
     <t>プライベートリポジトリからダウンロードするには、&lt;strong&gt;READ&lt;/strong&gt; 権限を持つ &lt;strong&gt;Huggingface トークン&lt;/strong&gt; を入力してください。 &lt;a href="https://huggingface.co/settings/tokens" class="sdhub-link" target="_blank"&gt;こちら&lt;/a&gt; から取得できます。&lt;br&gt;認証エラーが発生した場合は、&lt;strong&gt;Civitai APIキー&lt;/strong&gt; を入力してください。 キーを取得するには &lt;a href="https://civitai.com/user/account" class="sdhub-link" target="_blank"&gt;こちら&lt;/a&gt;&lt;br&gt;&lt;strong&gt;セーブ&lt;/strong&gt; = UIをリロードまたはWebUIを起動する際にトークンを自動読み込み&lt;br&gt;&lt;strong&gt;ロード&lt;/strong&gt; = トークンをロード&lt;br&gt;対応ドメイン: &lt;strong&gt;•&lt;/strong&gt; &lt;a class="sdhub-nonlink"&gt;Civitai&lt;/a&gt; &lt;strong&gt;•&lt;/strong&gt; &lt;a class="sdhub-nonlink"&gt;Huggingface&lt;/a&gt; &lt;strong&gt;•&lt;/strong&gt; &lt;a class="sdhub-nonlink"&gt;Github&lt;/a&gt; &lt;strong&gt;•&lt;/strong&gt; &lt;a class="sdhub-nonlink"&gt;Drive.Google&lt;/a&gt; &lt;strong&gt;•&lt;/strong&gt;&lt;br&gt;使い方は &lt;a href="https://github.com/gutris1/sd-hub/blob/master/README.md#downloader" class="sdhub-link" target="_blank"&gt;こちら&lt;/a&gt; を参照</t>
   </si>
   <si>
@@ -1342,54 +1024,33 @@
     <t>&lt;strong&gt;Colab&lt;/strong&gt;: /content/stable-diffusion-webui/model.safetensors&lt;br&gt;&lt;strong&gt;Kaggle&lt;/strong&gt;: /kaggle/working/stable-diffusion-webui/model.safetensors&lt;br&gt;&lt;strong&gt;Sagemaker Studio Lab&lt;/strong&gt;: /home/studio-lab-user/stable-diffusion-webui/model.safetensors&lt;br&gt;&lt;br&gt;獲取具有 &lt;strong&gt;WRITE&lt;/strong&gt; 權限的 &lt;strong&gt;Huggingface 令牌&lt;/strong&gt;，請訪問 &lt;a href="https://huggingface.co/settings/tokens" class="sdhub-link" target="_blank"&gt;此處&lt;/a&gt;。&lt;br&gt;使用方法請參閱 &lt;a href="https://github.com/gutris1/sd-hub/blob/master/README.md#uploader" class="sdhub-link" target="_blank"&gt;此處&lt;/a&gt;。&lt;br&gt;</t>
   </si>
   <si>
-    <t>&lt;strong&gt;Colab&lt;/strong&gt;: /content/stable-diffusion-webui/model.safetensors&lt;br&gt;&lt;strong&gt;Kaggle&lt;/strong&gt;: /kaggle/working/stable-diffusion-webui/model.safetensors&lt;br&gt;&lt;strong&gt;Sagemaker Studio Lab&lt;/strong&gt;: /home/studio-lab-user/stable-diffusion-webui/model.safetensors&lt;br&gt;&lt;br&gt;Obtén tu &lt;strong&gt;Token de Huggingface&lt;/strong&gt; con el rol &lt;strong&gt;WRITE&lt;/strong&gt; desde &lt;a href="https://huggingface.co/settings/tokens" class="sdhub-link" target="_blank"&gt;aquí&lt;/a&gt;.&lt;br&gt;Consulta el uso &lt;a href="https://github.com/gutris1/sd-hub/blob/master/README.md#uploader" class="sdhub-link" target="_blank"&gt;aquí&lt;/a&gt;.&lt;br&gt;</t>
-  </si>
-  <si>
     <t>&lt;strong&gt;Colab&lt;/strong&gt;: /content/stable-diffusion-webui/model.safetensors&lt;br&gt;&lt;strong&gt;Kaggle&lt;/strong&gt;: /kaggle/working/stable-diffusion-webui/model.safetensors&lt;br&gt;&lt;strong&gt;Sagemaker Studio Lab&lt;/strong&gt;: /home/studio-lab-user/stable-diffusion-webui/model.safetensors&lt;br&gt;&lt;br&gt;&lt;strong&gt;Huggingface 토큰&lt;/strong&gt; &lt;strong&gt;WRITE&lt;/strong&gt; 권한 을 &lt;a href="https://huggingface.co/settings/tokens" class="sdhub-link" target="_blank"&gt;여기&lt;/a&gt;에서 받으세요.&lt;br&gt;사용법은 &lt;a href="https://github.com/gutris1/sd-hub/blob/master/README.md#uploader" class="sdhub-link" target="_blank"&gt;여기&lt;/a&gt;에서 확인하세요.&lt;br&gt;</t>
   </si>
   <si>
-    <t>&lt;strong&gt;Colab&lt;/strong&gt;: /content/stable-diffusion-webui/model.safetensors&lt;br&gt;&lt;strong&gt;Kaggle&lt;/strong&gt;: /kaggle/working/stable-diffusion-webui/model.safetensors&lt;br&gt;&lt;strong&gt;Sagemaker Studio Lab&lt;/strong&gt;: /home/studio-lab-user/stable-diffusion-webui/model.safetensors&lt;br&gt;&lt;br&gt;Получите &lt;strong&gt;Huggingface Token&lt;/strong&gt; с ролью &lt;strong&gt;WRITE&lt;/strong&gt; &lt;a href="https://huggingface.co/settings/tokens" class="sdhub-link" target="_blank"&gt;здесь&lt;/a&gt;.&lt;br&gt;Смотрите инструкцию &lt;a href="https://github.com/gutris1/sd-hub/blob/master/README.md#uploader" class="sdhub-link" target="_blank"&gt;здесь&lt;/a&gt;.&lt;br&gt;</t>
-  </si>
-  <si>
     <t>archiver_tab_info</t>
   </si>
   <si>
     <t>Your Huggingface Token here</t>
   </si>
   <si>
-    <t>Введите ваш Huggingface токен здесь</t>
-  </si>
-  <si>
     <t>Huggingface トークン (WRITE)</t>
   </si>
   <si>
     <t>Huggingface 令牌 (WRITE)</t>
   </si>
   <si>
-    <t>Token de Huggingface (WRITE)</t>
-  </si>
-  <si>
     <t>Huggingface 토큰 (WRITE)</t>
   </si>
   <si>
-    <t>Токен Huggingface (WRITE)</t>
-  </si>
-  <si>
     <t>Huggingface トークン (READ)</t>
   </si>
   <si>
     <t>Huggingface 令牌 (READ)</t>
   </si>
   <si>
-    <t>Token de Huggingface (READ)</t>
-  </si>
-  <si>
     <t>Huggingface 토큰 (READ)</t>
   </si>
   <si>
-    <t>Токен Huggingface (READ)</t>
-  </si>
-  <si>
     <t>imgchest API Key</t>
   </si>
   <si>
@@ -1474,15 +1135,9 @@
     <t>提示詞</t>
   </si>
   <si>
-    <t>Indicaciones</t>
-  </si>
-  <si>
     <t>프롬프트</t>
   </si>
   <si>
-    <t>Промпт</t>
-  </si>
-  <si>
     <t>プロンプトをコピー</t>
   </si>
   <si>
@@ -1492,15 +1147,9 @@
     <t>複製提示詞</t>
   </si>
   <si>
-    <t>Copiar indicaciones</t>
-  </si>
-  <si>
     <t>프롬프트 복사</t>
   </si>
   <si>
-    <t>Копировать промпт</t>
-  </si>
-  <si>
     <t>ネガティブプロンプト</t>
   </si>
   <si>
@@ -1510,15 +1159,9 @@
     <t>負面提示詞</t>
   </si>
   <si>
-    <t>Indicaciones negativas</t>
-  </si>
-  <si>
     <t>네거티브 프롬프트</t>
   </si>
   <si>
-    <t>Негативный промпт</t>
-  </si>
-  <si>
     <t>ネガティブプロンプトをコピー</t>
   </si>
   <si>
@@ -1528,15 +1171,9 @@
     <t>複製負面提示詞</t>
   </si>
   <si>
-    <t>Copiar indicaciones negativas</t>
-  </si>
-  <si>
     <t>네거티브 프롬프트 복사</t>
   </si>
   <si>
-    <t>Копировать негативный промпт</t>
-  </si>
-  <si>
     <t>パラメータ</t>
   </si>
   <si>
@@ -1546,15 +1183,9 @@
     <t>參數</t>
   </si>
   <si>
-    <t>Parámetros</t>
-  </si>
-  <si>
     <t>매개변수</t>
   </si>
   <si>
-    <t>Параметры</t>
-  </si>
-  <si>
     <t>パラメータ設定をコピー</t>
   </si>
   <si>
@@ -1564,15 +1195,9 @@
     <t>複製參數設定</t>
   </si>
   <si>
-    <t>Copiar configuración de parámetros</t>
-  </si>
-  <si>
     <t>매개변수 설정 복사</t>
   </si>
   <si>
-    <t>Копировать настройки параметров</t>
-  </si>
-  <si>
     <t>シード値をコピー</t>
   </si>
   <si>
@@ -1582,15 +1207,9 @@
     <t>複製種子值</t>
   </si>
   <si>
-    <t>Copiar valor de semilla</t>
-  </si>
-  <si>
     <t>시드 값 복사</t>
   </si>
   <si>
-    <t>Копировать значение сидa</t>
-  </si>
-  <si>
     <t>txt2img に送信</t>
   </si>
   <si>
@@ -1600,15 +1219,9 @@
     <t>發送到 txt2img</t>
   </si>
   <si>
-    <t>Enviar a txt2img</t>
-  </si>
-  <si>
     <t>txt2img로 보내기</t>
   </si>
   <si>
-    <t>Отправить в txt2img</t>
-  </si>
-  <si>
     <t>img2img に送信</t>
   </si>
   <si>
@@ -1618,15 +1231,9 @@
     <t>發送到 img2img</t>
   </si>
   <si>
-    <t>Enviar a img2img</t>
-  </si>
-  <si>
     <t>img2img로 보내기</t>
   </si>
   <si>
-    <t>Отправить в img2img</t>
-  </si>
-  <si>
     <t>inpaint に送信</t>
   </si>
   <si>
@@ -1636,12 +1243,6 @@
     <t>發送到 inpaint</t>
   </si>
   <si>
-    <t>Enviar a inpaint</t>
-  </si>
-  <si>
-    <t>Отправить в inpaint</t>
-  </si>
-  <si>
     <t>extras に送信</t>
   </si>
   <si>
@@ -1651,12 +1252,6 @@
     <t>發送到 extras</t>
   </si>
   <si>
-    <t>Enviar a extras</t>
-  </si>
-  <si>
-    <t>Отправить в extras</t>
-  </si>
-  <si>
     <t>extras로 보내기</t>
   </si>
   <si>
@@ -1678,15 +1273,9 @@
     <t>複製</t>
   </si>
   <si>
-    <t>Copiar</t>
-  </si>
-  <si>
     <t>복사</t>
   </si>
   <si>
-    <t>Копировать</t>
-  </si>
-  <si>
     <t>Archive</t>
   </si>
   <si>
@@ -1702,15 +1291,9 @@
     <t>存檔</t>
   </si>
   <si>
-    <t>Archivo</t>
-  </si>
-  <si>
     <t>아카이브</t>
   </si>
   <si>
-    <t>Архив</t>
-  </si>
-  <si>
     <t>归档器</t>
   </si>
   <si>
@@ -1726,9 +1309,6 @@
     <t>추출기</t>
   </si>
   <si>
-    <t>Извлекатель</t>
-  </si>
-  <si>
     <t>抽出</t>
   </si>
   <si>
@@ -1750,15 +1330,9 @@
     <t>&lt;strong&gt;歸檔器&lt;/strong&gt; :&lt;br&gt;&lt;a class="sdhub-nonlink"&gt;名稱&lt;/a&gt; 壓縮文件的名稱（不包括副檔名）&lt;br&gt;&lt;a class="sdhub-nonlink"&gt;輸入路徑&lt;/a&gt; 指向單個文件或包含多個文件的資料夾的路徑&lt;br&gt;&lt;a class="sdhub-nonlink"&gt;輸出路徑&lt;/a&gt; 壓縮文件存放的位置&lt;br&gt;&lt;a class="sdhub-nonlink"&gt;建立目錄&lt;/a&gt; 若輸出路徑不存在，則自動建立新資料夾&lt;br&gt;&lt;a class="sdhub-nonlink"&gt;分割依據&lt;/a&gt; 根據 &lt;strong&gt;輸入路徑&lt;/strong&gt; 中的文件數量將壓縮分割為多個文件&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;提取器&lt;/strong&gt; :&lt;br&gt;&lt;a class="sdhub-nonlink"&gt;輸入路徑&lt;/a&gt; 指向壓縮文件的路徑&lt;br&gt;&lt;a class="sdhub-nonlink"&gt;輸出路徑&lt;/a&gt; 壓縮文件解壓後存放的路徑&lt;br&gt;&lt;a class="sdhub-nonlink"&gt;建立目錄&lt;/a&gt; 若輸出路徑不存在，則自動建立新資料夾&lt;br&gt;</t>
   </si>
   <si>
-    <t>&lt;strong&gt;Archivador&lt;/strong&gt; :&lt;br&gt;&lt;a class="sdhub-nonlink"&gt;Nombre&lt;/a&gt; Nombre del archivo comprimido (sin la extensión)&lt;br&gt;&lt;a class="sdhub-nonlink"&gt;Ruta de entrada&lt;/a&gt; Ruta que apunta a un solo archivo o carpeta con varios archivos&lt;br&gt;&lt;a class="sdhub-nonlink"&gt;Ruta de salida&lt;/a&gt; Ruta donde se guardará el archivo comprimido&lt;br&gt;&lt;a class="sdhub-nonlink"&gt;Crear directorio&lt;/a&gt; Crea automáticamente una carpeta nueva en la ruta de salida si no existe&lt;br&gt;&lt;a class="sdhub-nonlink"&gt;Dividir por&lt;/a&gt; Divide la compresión en varios archivos según el número de archivos en &lt;strong&gt;Ruta de entrada&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;Extractor&lt;/strong&gt; :&lt;br&gt;&lt;a class="sdhub-nonlink"&gt;Ruta de entrada&lt;/a&gt; Ruta del archivo comprimido&lt;br&gt;&lt;a class="sdhub-nonlink"&gt;Ruta de salida&lt;/a&gt; Ruta donde se extraerá el archivo comprimido&lt;br&gt;&lt;a class="sdhub-nonlink"&gt;Crear directorio&lt;/a&gt; Crea automáticamente una carpeta nueva en la ruta de salida si no existe&lt;br&gt;</t>
-  </si>
-  <si>
     <t>&lt;strong&gt;아카이버&lt;/strong&gt; :&lt;br&gt;&lt;a class="sdhub-nonlink"&gt;이름&lt;/a&gt; 압축 파일의 이름 (파일 확장자 제외)&lt;br&gt;&lt;a class="sdhub-nonlink"&gt;입력 경로&lt;/a&gt; 단일 파일 또는 여러 파일이 포함된 폴더의 경로&lt;br&gt;&lt;a class="sdhub-nonlink"&gt;출력 경로&lt;/a&gt; 압축 파일이 저장될 위치&lt;br&gt;&lt;a class="sdhub-nonlink"&gt;디렉터리 생성&lt;/a&gt; 출력 경로에 폴더가 없으면 자동으로 생성&lt;br&gt;&lt;a class="sdhub-nonlink"&gt;분할 기준&lt;/a&gt; &lt;strong&gt;입력 경로&lt;/strong&gt;의 파일 수에 따라 압축을 여러 파일로 나눔&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;추출기&lt;/strong&gt; :&lt;br&gt;&lt;a class="sdhub-nonlink"&gt;입력 경로&lt;/a&gt; 압축 파일이 위치한 경로&lt;br&gt;&lt;a class="sdhub-nonlink"&gt;출력 경로&lt;/a&gt; 압축 파일이 해제될 경로&lt;br&gt;&lt;a class="sdhub-nonlink"&gt;디렉터리 생성&lt;/a&gt; 출력 경로에 폴더가 없으면 자동으로 생성&lt;br&gt;</t>
   </si>
   <si>
-    <t>&lt;strong&gt;Архиватор&lt;/strong&gt; :&lt;br&gt;&lt;a class="sdhub-nonlink"&gt;Имя&lt;/a&gt; Имя сжатого файла (без расширения)&lt;br&gt;&lt;a class="sdhub-nonlink"&gt;Путь ввода&lt;/a&gt; Путь к файлу или папке, содержащей несколько файлов&lt;br&gt;&lt;a class="sdhub-nonlink"&gt;Путь вывода&lt;/a&gt; Путь, где будет сохранен сжатый файл&lt;br&gt;&lt;a class="sdhub-nonlink"&gt;Создать каталог&lt;/a&gt; Автоматически создаёт новую папку в пути вывода, если она отсутствует&lt;br&gt;&lt;a class="sdhub-nonlink"&gt;Разделить по&lt;/a&gt; Разделяет сжатый файл на несколько частей в зависимости от количества файлов в &lt;strong&gt;Пути ввода&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;Извлекатель&lt;/strong&gt; :&lt;br&gt;&lt;a class="sdhub-nonlink"&gt;Путь ввода&lt;/a&gt; Путь к сжатому файлу&lt;br&gt;&lt;a class="sdhub-nonlink"&gt;Путь вывода&lt;/a&gt; Путь, куда будет распакован сжатый файл&lt;br&gt;&lt;a class="sdhub-nonlink"&gt;Создать каталог&lt;/a&gt; Автоматически создаёт новую папку в пути вывода, если она отсутствует&lt;br&gt;</t>
-  </si>
-  <si>
     <t>load_token</t>
   </si>
   <si>
@@ -1795,12 +1369,6 @@
     <t>Save Setting</t>
   </si>
   <si>
-    <t>Cargar Token</t>
-  </si>
-  <si>
-    <t>Guardar Token</t>
-  </si>
-  <si>
     <t>ファイルを読み込む</t>
   </si>
   <si>
@@ -1810,24 +1378,12 @@
     <t>載入檔案</t>
   </si>
   <si>
-    <t>Cargar archivo</t>
-  </si>
-  <si>
     <t>파일 로드</t>
   </si>
   <si>
-    <t>Загрузить файл</t>
-  </si>
-  <si>
-    <t>Сохранить изменения</t>
-  </si>
-  <si>
     <t>변경 사항 저장</t>
   </si>
   <si>
-    <t>Guardar cambios</t>
-  </si>
-  <si>
     <t>儲存變更</t>
   </si>
   <si>
@@ -1855,24 +1411,12 @@
     <t>儲存設定</t>
   </si>
   <si>
-    <t>Cargar configuración</t>
-  </si>
-  <si>
-    <t>Guardar configuración</t>
-  </si>
-  <si>
     <t>설정 로드</t>
   </si>
   <si>
     <t>설정 저장</t>
   </si>
   <si>
-    <t>Загрузить настройки</t>
-  </si>
-  <si>
-    <t>Сохранить настройки</t>
-  </si>
-  <si>
     <t>トークンを読み込む</t>
   </si>
   <si>
@@ -1897,12 +1441,6 @@
     <t>토큰 저장</t>
   </si>
   <si>
-    <t>Загрузить токен</t>
-  </si>
-  <si>
-    <t>Сохранить токен</t>
-  </si>
-  <si>
     <t>ここに Huggingface トークン を入力</t>
   </si>
   <si>
@@ -1912,9 +1450,6 @@
     <t>在此輸入 Huggingface 權杖</t>
   </si>
   <si>
-    <t>Ingresa tu Huggingface token aquí</t>
-  </si>
-  <si>
     <t>여기에 Huggingface 토큰 입력</t>
   </si>
   <si>
@@ -1927,15 +1462,9 @@
     <t>在此輸入 Civitai API 金鑰</t>
   </si>
   <si>
-    <t>Ingresa tu Civitai API clave aquí</t>
-  </si>
-  <si>
     <t>여기에 Civitai API 키 입력</t>
   </si>
   <si>
-    <t>Введите ваш Civitai API ключ здесь</t>
-  </si>
-  <si>
     <t>setting_title</t>
   </si>
   <si>
@@ -1948,15 +1477,9 @@
     <t>设置</t>
   </si>
   <si>
-    <t>Configuración</t>
-  </si>
-  <si>
     <t>설정</t>
   </si>
   <si>
-    <t>Настройки</t>
-  </si>
-  <si>
     <t>images_per_page</t>
   </si>
   <si>
@@ -1969,15 +1492,9 @@
     <t>每頁圖片數量</t>
   </si>
   <si>
-    <t>Imágenes por página</t>
-  </si>
-  <si>
     <t>페이지당 이미지 수</t>
   </si>
   <si>
-    <t>Изображений на странице</t>
-  </si>
-  <si>
     <t>thumbnail_shape</t>
   </si>
   <si>
@@ -2137,42 +1654,6 @@
     <t>套用</t>
   </si>
   <si>
-    <t>Forma de miniatura</t>
-  </si>
-  <si>
-    <t>Relación de aspecto</t>
-  </si>
-  <si>
-    <t>Cuadrado</t>
-  </si>
-  <si>
-    <t>Posición de miniatura</t>
-  </si>
-  <si>
-    <t>Centro</t>
-  </si>
-  <si>
-    <t>Arriba</t>
-  </si>
-  <si>
-    <t>Diseño de miniatura</t>
-  </si>
-  <si>
-    <t>Rejilla irregular</t>
-  </si>
-  <si>
-    <t>Uniforme</t>
-  </si>
-  <si>
-    <t>Tamaño de miniatura</t>
-  </si>
-  <si>
-    <t>Lado a lado</t>
-  </si>
-  <si>
-    <t>Aplicar</t>
-  </si>
-  <si>
     <t>썸네일 모양</t>
   </si>
   <si>
@@ -2209,42 +1690,6 @@
     <t>적용</t>
   </si>
   <si>
-    <t>Форма миниатюры</t>
-  </si>
-  <si>
-    <t>Соотношение сторон</t>
-  </si>
-  <si>
-    <t>Квадрат</t>
-  </si>
-  <si>
-    <t>Положение миниатюры</t>
-  </si>
-  <si>
-    <t>Центр</t>
-  </si>
-  <si>
-    <t>Верх</t>
-  </si>
-  <si>
-    <t>Макет миниатюр</t>
-  </si>
-  <si>
-    <t>Кирпичная кладка</t>
-  </si>
-  <si>
-    <t>Равномерный</t>
-  </si>
-  <si>
-    <t>Размер миниатюры</t>
-  </si>
-  <si>
-    <t>Рядом</t>
-  </si>
-  <si>
-    <t>Применить</t>
-  </si>
-  <si>
     <t>show_filename</t>
   </si>
   <si>
@@ -2305,18 +1750,6 @@
     <t>항상 버튼 표시</t>
   </si>
   <si>
-    <t>Mostrar botones</t>
-  </si>
-  <si>
-    <t>Mostrar nombre de archivo</t>
-  </si>
-  <si>
-    <t>Показать имя файла</t>
-  </si>
-  <si>
-    <t>Показать кнопки</t>
-  </si>
-  <si>
     <t>メタデータのレイアウト</t>
   </si>
   <si>
@@ -2326,15 +1759,9 @@
     <t>中繼資料佈局</t>
   </si>
   <si>
-    <t>Diseño de metadatos</t>
-  </si>
-  <si>
     <t>메타데이터 레이아웃</t>
   </si>
   <si>
-    <t>Макет метаданных</t>
-  </si>
-  <si>
     <t>1ページあたりに表示する画像数を制限（最小10、最大1000）</t>
   </si>
   <si>
@@ -2344,15 +1771,9 @@
     <t>限制每頁顯示的圖片數量（最少10，最多1000）</t>
   </si>
   <si>
-    <t>Limitar imágenes mostradas por página (mín. 10, máx. 1000)</t>
-  </si>
-  <si>
     <t>페이지당 표시할 이미지 수 제한 (최소 10, 최대 1000)</t>
   </si>
   <si>
-    <t>Ограничить количество изображений на странице (мин. 10, макс. 1000)</t>
-  </si>
-  <si>
     <t>Limit images shown per page (min 10, max 1000)</t>
   </si>
   <si>
@@ -2374,15 +1795,9 @@
     <t>選擇縮圖的形狀：保留原始寬高比或裁剪為正方形</t>
   </si>
   <si>
-    <t>Elige la forma de las miniaturas: mantener la proporción original o recortar a cuadrado</t>
-  </si>
-  <si>
     <t>썸네일 모양 선택: 원본 비율 유지 또는 정사각형으로 자르기</t>
   </si>
   <si>
-    <t>Выберите форму миниатюр: сохранить исходное соотношение сторон или обрезать до квадрата</t>
-  </si>
-  <si>
     <t>thumbnail_position_title</t>
   </si>
   <si>
@@ -2398,15 +1813,9 @@
     <t>設定正方形縮圖的垂直對齊方式</t>
   </si>
   <si>
-    <t>Establecer la alineación vertical de las miniaturas cuadradas</t>
-  </si>
-  <si>
     <t>정사각형 썸네일의 수직 정렬 설정</t>
   </si>
   <si>
-    <t>Установить вертикальное выравнивание квадратных миниатюр</t>
-  </si>
-  <si>
     <t>Select how thumbnails are arranged: Masonry (free-flowing) or Uniform (space-evenly)</t>
   </si>
   <si>
@@ -2422,15 +1831,9 @@
     <t>選擇縮圖的排列方式：瀑布流（自由排列）或統一網格（平均間距）</t>
   </si>
   <si>
-    <t>Selecciona cómo se organizan las miniaturas: Masonry (flujo libre) o Uniforme (espaciado uniforme)</t>
-  </si>
-  <si>
     <t>썸네일 정렬 방식을 선택하세요: 매슨리(자유 흐름) 또는 유니폼(균일 간격)</t>
   </si>
   <si>
-    <t>Выберите способ размещения миниатюр: Мейсонри (свободный поток) или Равномерный (с равными промежутками)</t>
-  </si>
-  <si>
     <t>Adjust thumbnail size in pixels (min 100, max 512)</t>
   </si>
   <si>
@@ -2446,15 +1849,9 @@
     <t>調整縮圖大小（單位為像素，最小 100，最大 512）</t>
   </si>
   <si>
-    <t>Ajusta el tamaño de las miniaturas en píxeles (mín. 100, máx. 512)</t>
-  </si>
-  <si>
     <t>썸네일 크기를 픽셀 단위로 조절 (최소 100, 최대 512)</t>
   </si>
   <si>
-    <t>Настройте размер миниатюр в пикселях (мин. 100, макс. 512)</t>
-  </si>
-  <si>
     <t>show_filename_title</t>
   </si>
   <si>
@@ -2476,15 +1873,9 @@
     <t>切換檔名可見性：總是顯示或僅在滑鼠懸停時顯示</t>
   </si>
   <si>
-    <t>Alternar visibilidad del nombre de archivo: mostrar siempre o solo al pasar el cursor</t>
-  </si>
-  <si>
     <t>파일 이름 표시 전환: 항상 표시하거나 마우스 오버 시에만 표시</t>
   </si>
   <si>
-    <t>Переключить видимость имени файла: всегда показывать или только при наведении</t>
-  </si>
-  <si>
     <t>Toggle image button visibility: always show or only on hover</t>
   </si>
   <si>
@@ -2497,15 +1888,9 @@
     <t>切換圖片按鈕可見性：總是顯示或僅在滑鼠懸停時顯示</t>
   </si>
   <si>
-    <t>Alternar visibilidad de botones de imagen: mostrar siempre o solo al pasar el cursor</t>
-  </si>
-  <si>
     <t>이미지 버튼 표시 전환: 항상 표시하거나 마우스 오버 시에만 표시</t>
   </si>
   <si>
-    <t>Переключить видимость кнопок изображения: всегда показывать или только при наведении</t>
-  </si>
-  <si>
     <t>Choose how image metadata info is displayed: full width or side by side</t>
   </si>
   <si>
@@ -2518,15 +1903,9 @@
     <t>選擇圖像中繼資料資訊的顯示方式 是全寬還是並排顯示</t>
   </si>
   <si>
-    <t>Elige cómo se muestra la información de metadatos de la imagen ancho completo o lado a lado</t>
-  </si>
-  <si>
     <t>이미지 메타데이터 정보를 표시하는 방식을 선택 전체 너비 또는 나란히</t>
   </si>
   <si>
-    <t>Выберите способ отображения метаданных изображения полностью по ширине или рядом</t>
-  </si>
-  <si>
     <t>full_width</t>
   </si>
   <si>
@@ -2542,13 +1921,367 @@
     <t>全寬</t>
   </si>
   <si>
-    <t>Ancho completo</t>
-  </si>
-  <si>
     <t>전체 너비</t>
   </si>
   <si>
-    <t>Полная ширина</t>
+    <t>// gallery multi selection</t>
+  </si>
+  <si>
+    <t>タブを切り替えると、{{number}} 件の選択された画像がすべてクリアされます。&lt;br&gt;続行しますか？</t>
+  </si>
+  <si>
+    <t>切换标签页将清除全部 {{number}} 张已选择的图片。&lt;br&gt;是否继续？</t>
+  </si>
+  <si>
+    <t>切換標籤將清除所有 {{number}} 張已選取的圖片。&lt;br&gt;是否繼續？</t>
+  </si>
+  <si>
+    <t>탭을 전환하면 선택된 {{number}}개의 이미지가 모두 삭제됩니다.&lt;br&gt;계속하시겠습니까?</t>
+  </si>
+  <si>
+    <t>Select Image</t>
+  </si>
+  <si>
+    <t>Unselect Image</t>
+  </si>
+  <si>
+    <t>select_image</t>
+  </si>
+  <si>
+    <t>unselect_image</t>
+  </si>
+  <si>
+    <t>선택</t>
+  </si>
+  <si>
+    <t>해제</t>
+  </si>
+  <si>
+    <t>選択解除</t>
+  </si>
+  <si>
+    <t>選択</t>
+  </si>
+  <si>
+    <t>选择</t>
+  </si>
+  <si>
+    <t>取消选择</t>
+  </si>
+  <si>
+    <t>選取</t>
+  </si>
+  <si>
+    <t>取消選取</t>
+  </si>
+  <si>
+    <t>選択された画像 {{number}} 枚を削除してもよろしいですか？</t>
+  </si>
+  <si>
+    <t>您确定要删除已选择的 {{number}} 张图片吗？</t>
+  </si>
+  <si>
+    <t>您確定要刪除選取的 {{number}} 張圖片嗎？</t>
+  </si>
+  <si>
+    <t>선택한 이미지 {{number}}장을 삭제하시겠습니까?</t>
+  </si>
+  <si>
+    <t>batchbox_ask_switching</t>
+  </si>
+  <si>
+    <t>batchbox_ask_deleting</t>
+  </si>
+  <si>
+    <t>Delete permanently</t>
+  </si>
+  <si>
+    <t>完全に削除</t>
+  </si>
+  <si>
+    <t>永久删除</t>
+  </si>
+  <si>
+    <t>永久刪除</t>
+  </si>
+  <si>
+    <t>영구적으로 삭제</t>
+  </si>
+  <si>
+    <t>delete_permanent</t>
+  </si>
+  <si>
+    <t>cancel</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>default_batch</t>
+  </si>
+  <si>
+    <t>Default to sdhub-gallery</t>
+  </si>
+  <si>
+    <t>デフォルトで sdhub-gallery に設定</t>
+  </si>
+  <si>
+    <t>默认设置为 sdhub-gallery</t>
+  </si>
+  <si>
+    <t>預設為 sdhub-gallery</t>
+  </si>
+  <si>
+    <t>기본값은 sdhub-gallery</t>
+  </si>
+  <si>
+    <t>キャンセル</t>
+  </si>
+  <si>
+    <t>取消</t>
+  </si>
+  <si>
+    <t>File Name :</t>
+  </si>
+  <si>
+    <t>file_name</t>
+  </si>
+  <si>
+    <t>ファイル名：</t>
+  </si>
+  <si>
+    <t>文件名：</t>
+  </si>
+  <si>
+    <t>檔案名稱：</t>
+  </si>
+  <si>
+    <t>파일 이름 :</t>
+  </si>
+  <si>
+    <t>취소</t>
+  </si>
+  <si>
+    <t>Batch Download</t>
+  </si>
+  <si>
+    <t>batch_download</t>
+  </si>
+  <si>
+    <t>一括ダウンロード</t>
+  </si>
+  <si>
+    <t>批量下载</t>
+  </si>
+  <si>
+    <t>批次下載</t>
+  </si>
+  <si>
+    <t>일괄 다운로드</t>
+  </si>
+  <si>
+    <t>Never show this again</t>
+  </si>
+  <si>
+    <t>今後このメッセージを表示しない</t>
+  </si>
+  <si>
+    <t>不再显示此消息</t>
+  </si>
+  <si>
+    <t>不再顯示此訊息</t>
+  </si>
+  <si>
+    <t>다시 표시하지 않기</t>
+  </si>
+  <si>
+    <t>suppress_warning</t>
+  </si>
+  <si>
+    <t>Always delete image permanently</t>
+  </si>
+  <si>
+    <t>画像を常に完全に削除する</t>
+  </si>
+  <si>
+    <t>始终永久删除图像</t>
+  </si>
+  <si>
+    <t>總是永久刪除影像</t>
+  </si>
+  <si>
+    <t>항상 이미지를 영구적으로 삭제</t>
+  </si>
+  <si>
+    <t>Always delete batch permanently</t>
+  </si>
+  <si>
+    <t>バッチを常に完全に削除する</t>
+  </si>
+  <si>
+    <t>始终永久删除批量内容</t>
+  </si>
+  <si>
+    <t>總是永久刪除批次內容</t>
+  </si>
+  <si>
+    <t>항상 배치를 영구적으로 삭제</t>
+  </si>
+  <si>
+    <t>Suppress batch delete confirmation</t>
+  </si>
+  <si>
+    <t>Suppress delete confirmation</t>
+  </si>
+  <si>
+    <t>削除確認を表示しない</t>
+  </si>
+  <si>
+    <t>不再显示删除确认</t>
+  </si>
+  <si>
+    <t>不再顯示刪除確認</t>
+  </si>
+  <si>
+    <t>삭제 확인 표시 안 함</t>
+  </si>
+  <si>
+    <t>一括削除の確認を表示しない</t>
+  </si>
+  <si>
+    <t>不再显示批量删除确认</t>
+  </si>
+  <si>
+    <t>不再顯示批次刪除確認</t>
+  </si>
+  <si>
+    <t>일괄 삭제 확인 표시 안 함</t>
+  </si>
+  <si>
+    <t>Suppress warning when switching tabs</t>
+  </si>
+  <si>
+    <t>タブを切り替える際の警告を表示しない</t>
+  </si>
+  <si>
+    <t>切换标签时不显示警告</t>
+  </si>
+  <si>
+    <t>切換標籤時不顯示警告</t>
+  </si>
+  <si>
+    <t>탭 전환 시 경고 표시 안 함</t>
+  </si>
+  <si>
+    <t>Prevents the tab switch warning that appears when one or more images are selected.</t>
+  </si>
+  <si>
+    <t>画像が1つ以上選択されている場合に表示されるタブ切り替えの警告を表示しないようにします。</t>
+  </si>
+  <si>
+    <t>防止在选择一个或多个图像时切换标签页时出现的警告。</t>
+  </si>
+  <si>
+    <t>防止在選取一個或多個圖像時切換分頁所出現的警告。</t>
+  </si>
+  <si>
+    <t>하나 이상의 이미지를 선택한 상태에서 탭을 전환할 때 표시되는 경고를 방지합니다。</t>
+  </si>
+  <si>
+    <t>Skips the confirmation prompt when deleting multiple selected images.</t>
+  </si>
+  <si>
+    <t>複数の選択画像を削除する際の確認メッセージをスキップします。</t>
+  </si>
+  <si>
+    <t>跳过删除多个已选图片时的确认提示。</t>
+  </si>
+  <si>
+    <t>跳過刪除多個已選圖片時的確認提示。</t>
+  </si>
+  <si>
+    <t>여러 이미지를 삭제할 때 표시되는 확인 메시지를 건너뜁니다.</t>
+  </si>
+  <si>
+    <t>Bypass system Trash/Windows Recycle Bin and permanently delete selected images during batch delete.</t>
+  </si>
+  <si>
+    <t>システムのゴミ箱（Windowsの「ごみ箱」）を経由せず、選択された画像をバッチ削除時に完全に削除します。</t>
+  </si>
+  <si>
+    <t>在批量删除时跳过系统回收站（Windows 回收站），直接永久删除所选图像。</t>
+  </si>
+  <si>
+    <t>在批次刪除時略過系統資源回收筒（Windows 資源回收筒），永久刪除所選圖片。</t>
+  </si>
+  <si>
+    <t>시스템 휴지통(Windows 휴지통)을 우회하여 선택한 이미지를 일괄 삭제 시 영구적으로 삭제합니다.</t>
+  </si>
+  <si>
+    <t>Skips the confirmation prompt when deleting image.</t>
+  </si>
+  <si>
+    <t>画像を削除する際の確認プロンプトをスキップします。</t>
+  </si>
+  <si>
+    <t>删除图像时跳过确认提示。</t>
+  </si>
+  <si>
+    <t>刪除圖片時跳過確認提示。</t>
+  </si>
+  <si>
+    <t>이미지를 삭제할 때 확인 메시지를 건너뜁니다.</t>
+  </si>
+  <si>
+    <t>Bypass system Trash/Windows Recycle Bin and permanently delete the image.</t>
+  </si>
+  <si>
+    <t>システムのゴミ箱／Windowsのごみ箱を経由せず、画像を完全に削除します。</t>
+  </si>
+  <si>
+    <t>绕过系统回收站/Windows回收站，永久删除该图像。</t>
+  </si>
+  <si>
+    <t>繞過系統資源回收筒/Windows 資源回收筒，永久刪除該圖片。</t>
+  </si>
+  <si>
+    <t>시스템 휴지통/Windows 휴지통을 우회하여 이미지를 영구적으로 삭제합니다。</t>
+  </si>
+  <si>
+    <t>single_delete_permanent</t>
+  </si>
+  <si>
+    <t>single_delete_permanent_title</t>
+  </si>
+  <si>
+    <t>single_delete_suppress_warning</t>
+  </si>
+  <si>
+    <t>single_delete_suppress_warning_title</t>
+  </si>
+  <si>
+    <t>batch_delete_permanent</t>
+  </si>
+  <si>
+    <t>batch_delete_permanent_title</t>
+  </si>
+  <si>
+    <t>batch_delete_suppress_warning</t>
+  </si>
+  <si>
+    <t>batch_delete_suppress_warning_title</t>
+  </si>
+  <si>
+    <t>switch_tab_suppress_warning</t>
+  </si>
+  <si>
+    <t>switch_tab_suppress_warning_title</t>
+  </si>
+  <si>
+    <t>Are you sure you want to delete {{number}} selected image?</t>
+  </si>
+  <si>
+    <t>Switching Tab will clear all {{number}} selected image. &lt;br&gt;Continue?</t>
   </si>
 </sst>
 </file>
@@ -3460,19 +3193,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780E0960-BCEF-42B8-BB82-3303C65E8F3F}">
-  <dimension ref="A1:H122"/>
+  <dimension ref="A1:F146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="B141" sqref="B141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="60.7109375" customWidth="1"/>
+    <col min="2" max="2" width="66.28515625" customWidth="1"/>
+    <col min="3" max="6" width="60.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -3491,2901 +3225,2650 @@
       <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>244</v>
+        <v>183</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
       <c r="E2" s="17"/>
       <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>249</v>
+        <v>188</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>211</v>
+        <v>159</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>212</v>
+        <v>160</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>213</v>
+        <v>161</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>245</v>
+        <v>184</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>216</v>
+        <v>163</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>217</v>
+        <v>164</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>218</v>
+        <v>165</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>219</v>
+        <v>166</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>246</v>
+        <v>185</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>223</v>
+        <v>168</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>224</v>
+        <v>169</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>225</v>
+        <v>170</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>226</v>
+        <v>171</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>247</v>
+        <v>186</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>230</v>
+        <v>173</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>232</v>
+        <v>175</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>233</v>
+        <v>176</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>248</v>
+        <v>187</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>237</v>
+        <v>178</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>238</v>
+        <v>179</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>239</v>
+        <v>180</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>240</v>
+        <v>181</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>167</v>
+        <v>123</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>168</v>
+        <v>124</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>169</v>
+        <v>125</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>170</v>
+        <v>126</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>579</v>
+        <v>437</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>581</v>
+        <v>439</v>
       </c>
       <c r="C15" t="s">
-        <v>617</v>
+        <v>465</v>
       </c>
       <c r="D15" t="s">
-        <v>619</v>
+        <v>467</v>
       </c>
       <c r="E15" t="s">
-        <v>621</v>
+        <v>469</v>
       </c>
       <c r="F15" t="s">
-        <v>591</v>
-      </c>
-      <c r="G15" t="s">
-        <v>623</v>
-      </c>
-      <c r="H15" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>580</v>
+        <v>438</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>582</v>
+        <v>440</v>
       </c>
       <c r="C16" t="s">
-        <v>618</v>
+        <v>466</v>
       </c>
       <c r="D16" t="s">
-        <v>620</v>
+        <v>468</v>
       </c>
       <c r="E16" t="s">
-        <v>622</v>
+        <v>470</v>
       </c>
       <c r="F16" t="s">
-        <v>592</v>
-      </c>
-      <c r="G16" t="s">
-        <v>624</v>
-      </c>
-      <c r="H16" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>583</v>
+        <v>441</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>585</v>
+        <v>443</v>
       </c>
       <c r="C17" t="s">
-        <v>593</v>
+        <v>449</v>
       </c>
       <c r="D17" t="s">
-        <v>594</v>
+        <v>450</v>
       </c>
       <c r="E17" t="s">
-        <v>595</v>
+        <v>451</v>
       </c>
       <c r="F17" t="s">
-        <v>596</v>
-      </c>
-      <c r="G17" t="s">
-        <v>597</v>
-      </c>
-      <c r="H17" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>584</v>
+        <v>442</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>586</v>
+        <v>444</v>
       </c>
       <c r="C18" t="s">
-        <v>604</v>
+        <v>456</v>
       </c>
       <c r="D18" t="s">
-        <v>603</v>
+        <v>455</v>
       </c>
       <c r="E18" t="s">
-        <v>602</v>
+        <v>454</v>
       </c>
       <c r="F18" t="s">
-        <v>601</v>
-      </c>
-      <c r="G18" t="s">
-        <v>600</v>
-      </c>
-      <c r="H18" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>587</v>
+        <v>445</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>589</v>
+        <v>447</v>
       </c>
       <c r="C19" t="s">
-        <v>605</v>
+        <v>457</v>
       </c>
       <c r="D19" t="s">
-        <v>607</v>
+        <v>459</v>
       </c>
       <c r="E19" t="s">
-        <v>609</v>
+        <v>461</v>
       </c>
       <c r="F19" t="s">
-        <v>611</v>
-      </c>
-      <c r="G19" t="s">
-        <v>613</v>
-      </c>
-      <c r="H19" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>588</v>
+        <v>446</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>590</v>
+        <v>448</v>
       </c>
       <c r="C20" t="s">
-        <v>606</v>
+        <v>458</v>
       </c>
       <c r="D20" t="s">
-        <v>608</v>
+        <v>460</v>
       </c>
       <c r="E20" t="s">
-        <v>610</v>
+        <v>462</v>
       </c>
       <c r="F20" t="s">
-        <v>612</v>
-      </c>
-      <c r="G20" t="s">
-        <v>614</v>
-      </c>
-      <c r="H20" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>410</v>
+        <v>310</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>258</v>
+        <v>196</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>262</v>
+        <v>200</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>394</v>
+        <v>298</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>395</v>
+        <v>299</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>396</v>
+        <v>300</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>397</v>
+        <v>301</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>398</v>
+        <v>302</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>402</v>
+        <v>304</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>403</v>
+        <v>305</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>404</v>
+        <v>306</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>405</v>
+        <v>307</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>406</v>
+        <v>308</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>193</v>
+        <v>145</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>176</v>
+        <v>130</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>451</v>
+        <v>340</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>452</v>
+        <v>341</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>452</v>
+        <v>341</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>457</v>
+        <v>344</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>444</v>
+        <v>336</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>627</v>
+        <v>473</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>628</v>
+        <v>474</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>629</v>
+        <v>475</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>178</v>
+        <v>132</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>179</v>
+        <v>133</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>180</v>
+        <v>134</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>185</v>
+        <v>137</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>186</v>
+        <v>138</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>632</v>
+        <v>477</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>633</v>
+        <v>478</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>634</v>
+        <v>479</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C34" t="s">
+        <v>192</v>
+      </c>
+      <c r="D34" t="s">
+        <v>193</v>
+      </c>
+      <c r="E34" t="s">
         <v>194</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="F34" t="s">
         <v>195</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E35" t="s">
+        <v>338</v>
+      </c>
+      <c r="F35" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B36" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C36" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D36" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E36" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F36" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="G32" s="2" t="s">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="B37" s="5" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
+      <c r="C37" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F45" s="5" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B46" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C46" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D46" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E46" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F46" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="G34" t="s">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="H34" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="E35" t="s">
-        <v>447</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="G35" t="s">
-        <v>449</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
+      <c r="B47" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="E50" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="F50" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="D36" s="5" t="s">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="B51" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="C51" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="D51" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="E51" s="5" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+      <c r="F51" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="B37" s="5" t="s">
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="B52" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="C52" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="D52" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="E52" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="F52" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="H37" s="5" t="s">
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
+      <c r="B53" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="C53" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="D53" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="E53" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="F38" s="5" t="s">
+      <c r="F53" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="G38" s="5" t="s">
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="H38" s="5" t="s">
+      <c r="B54" s="5" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
+      <c r="C54" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="D54" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="E54" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="F54" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="E39" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="F39" s="5" t="s">
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="B55" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="H39" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H41" s="5" t="s">
+      <c r="C56" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C58" t="s">
+        <v>313</v>
+      </c>
+      <c r="D58" t="s">
+        <v>314</v>
+      </c>
+      <c r="E58" t="s">
+        <v>315</v>
+      </c>
+      <c r="F58" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="B59" t="s">
+        <v>318</v>
+      </c>
+      <c r="C59" t="s">
+        <v>319</v>
+      </c>
+      <c r="D59" t="s">
+        <v>320</v>
+      </c>
+      <c r="E59" t="s">
+        <v>321</v>
+      </c>
+      <c r="F59" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="14" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="C61" t="s">
+        <v>328</v>
+      </c>
+      <c r="D61" t="s">
+        <v>325</v>
+      </c>
+      <c r="E61" t="s">
+        <v>326</v>
+      </c>
+      <c r="F61" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="B62" t="s">
+        <v>330</v>
+      </c>
+      <c r="C62" t="s">
+        <v>331</v>
+      </c>
+      <c r="D62" t="s">
+        <v>332</v>
+      </c>
+      <c r="E62" t="s">
+        <v>333</v>
+      </c>
+      <c r="F62" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="B63" s="19" t="s">
+        <v>432</v>
+      </c>
+      <c r="C63" t="s">
+        <v>433</v>
+      </c>
+      <c r="D63" t="s">
+        <v>434</v>
+      </c>
+      <c r="E63" t="s">
+        <v>435</v>
+      </c>
+      <c r="F63" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="16" t="s">
         <v>297</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>563</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>555</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>557</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>558</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>560</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>561</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
-        <v>356</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="H53" s="5" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="11" t="s">
-        <v>379</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="H54" s="5" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>556</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>565</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>566</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>566</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>556</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>567</v>
-      </c>
-      <c r="H55" s="5" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>569</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>570</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>570</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>571</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="C58" t="s">
-        <v>413</v>
-      </c>
-      <c r="D58" t="s">
-        <v>414</v>
-      </c>
-      <c r="E58" t="s">
-        <v>415</v>
-      </c>
-      <c r="F58" t="s">
-        <v>416</v>
-      </c>
-      <c r="G58" t="s">
-        <v>417</v>
-      </c>
-      <c r="H58" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="10" t="s">
-        <v>419</v>
-      </c>
-      <c r="B59" t="s">
-        <v>420</v>
-      </c>
-      <c r="C59" t="s">
-        <v>421</v>
-      </c>
-      <c r="D59" t="s">
-        <v>422</v>
-      </c>
-      <c r="E59" t="s">
-        <v>423</v>
-      </c>
-      <c r="F59" t="s">
-        <v>424</v>
-      </c>
-      <c r="G59" t="s">
-        <v>425</v>
-      </c>
-      <c r="H59" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="14" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="10" t="s">
-        <v>427</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>428</v>
-      </c>
-      <c r="C61" t="s">
-        <v>434</v>
-      </c>
-      <c r="D61" t="s">
-        <v>429</v>
-      </c>
-      <c r="E61" t="s">
-        <v>430</v>
-      </c>
-      <c r="F61" t="s">
-        <v>431</v>
-      </c>
-      <c r="G61" t="s">
-        <v>432</v>
-      </c>
-      <c r="H61" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="10" t="s">
-        <v>435</v>
-      </c>
-      <c r="B62" t="s">
-        <v>436</v>
-      </c>
-      <c r="C62" t="s">
-        <v>437</v>
-      </c>
-      <c r="D62" t="s">
-        <v>438</v>
-      </c>
-      <c r="E62" t="s">
-        <v>439</v>
-      </c>
-      <c r="F62" t="s">
-        <v>440</v>
-      </c>
-      <c r="G62" t="s">
-        <v>441</v>
-      </c>
-      <c r="H62" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="B63" s="19" t="s">
-        <v>572</v>
-      </c>
-      <c r="C63" t="s">
-        <v>573</v>
-      </c>
-      <c r="D63" t="s">
-        <v>574</v>
-      </c>
-      <c r="E63" t="s">
-        <v>575</v>
-      </c>
-      <c r="F63" t="s">
-        <v>576</v>
-      </c>
-      <c r="G63" t="s">
-        <v>577</v>
-      </c>
-      <c r="H63" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="16" t="s">
-        <v>393</v>
       </c>
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
       <c r="D64" s="16"/>
       <c r="E64" s="16"/>
       <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="16"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="F65" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E65" s="1" t="s">
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H65" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
+      <c r="E66" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="F66" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C66" s="1" t="s">
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H66" s="1" t="s">
+      <c r="F67" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="7" t="s">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E68" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="F68" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G67" s="1" t="s">
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H67" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="7" t="s">
+      <c r="C69" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="E69" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="F69" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E68" s="1" t="s">
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="D70" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F70" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G68" s="1" t="s">
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H68" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="7" t="s">
+      <c r="E71" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B69" s="1" t="s">
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="B72" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E72" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="F72" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G69" s="1" t="s">
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H69" s="5" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C70" s="1" t="s">
+      <c r="B73" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D73" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F70" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G70" s="1" t="s">
+      <c r="E74" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H70" s="1" t="s">
+      <c r="F74" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D71" s="1" t="s">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E71" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F71" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H71" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
+      <c r="E75" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="C72" s="1" t="s">
+      <c r="F75" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C73" s="1" t="s">
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="E76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H73" s="1" t="s">
+      <c r="F76" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D75" s="1" t="s">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C77" t="s">
+        <v>414</v>
+      </c>
+      <c r="D77" t="s">
+        <v>415</v>
+      </c>
+      <c r="E77" t="s">
+        <v>416</v>
+      </c>
+      <c r="F77" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G75" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H75" s="1" t="s">
+      <c r="E78" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="7" t="s">
+      <c r="F78" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="E80" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="F80" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F76" s="1" t="s">
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="7"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H76" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="7" t="s">
+      <c r="D84" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="B88" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="B92" t="s">
+        <v>357</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="B93" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="B94" t="s">
+        <v>363</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="B95" t="s">
+        <v>360</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="B96" t="s">
+        <v>365</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="B97" t="s">
+        <v>366</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="14" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="B99" t="s">
+        <v>482</v>
+      </c>
+      <c r="C99" t="s">
+        <v>483</v>
+      </c>
+      <c r="D99" t="s">
+        <v>484</v>
+      </c>
+      <c r="E99" t="s">
+        <v>483</v>
+      </c>
+      <c r="F99" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="B100" t="s">
+        <v>558</v>
+      </c>
+      <c r="C100" t="s">
+        <v>487</v>
+      </c>
+      <c r="D100" t="s">
+        <v>488</v>
+      </c>
+      <c r="E100" t="s">
+        <v>489</v>
+      </c>
+      <c r="F100" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="B101" t="s">
+        <v>559</v>
+      </c>
+      <c r="C101" t="s">
+        <v>492</v>
+      </c>
+      <c r="D101" t="s">
+        <v>523</v>
+      </c>
+      <c r="E101" t="s">
+        <v>534</v>
+      </c>
+      <c r="F101" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="B102" t="s">
+        <v>560</v>
+      </c>
+      <c r="C102" t="s">
+        <v>494</v>
+      </c>
+      <c r="D102" t="s">
+        <v>524</v>
+      </c>
+      <c r="E102" t="s">
+        <v>535</v>
+      </c>
+      <c r="F102" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="B103" t="s">
+        <v>496</v>
+      </c>
+      <c r="C103" t="s">
+        <v>497</v>
+      </c>
+      <c r="D103" t="s">
+        <v>497</v>
+      </c>
+      <c r="E103" t="s">
+        <v>497</v>
+      </c>
+      <c r="F103" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="B104" t="s">
+        <v>561</v>
+      </c>
+      <c r="C104" t="s">
+        <v>498</v>
+      </c>
+      <c r="D104" t="s">
+        <v>525</v>
+      </c>
+      <c r="E104" t="s">
+        <v>536</v>
+      </c>
+      <c r="F104" t="s">
         <v>547</v>
       </c>
-      <c r="B77" s="1" t="s">
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="B105" t="s">
+        <v>504</v>
+      </c>
+      <c r="C105" t="s">
+        <v>502</v>
+      </c>
+      <c r="D105" t="s">
+        <v>526</v>
+      </c>
+      <c r="E105" t="s">
+        <v>537</v>
+      </c>
+      <c r="F105" t="s">
         <v>548</v>
       </c>
-      <c r="C77" t="s">
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="B106" t="s">
+        <v>505</v>
+      </c>
+      <c r="C106" t="s">
+        <v>503</v>
+      </c>
+      <c r="D106" t="s">
+        <v>527</v>
+      </c>
+      <c r="E106" t="s">
+        <v>538</v>
+      </c>
+      <c r="F106" t="s">
         <v>549</v>
       </c>
-      <c r="D77" t="s">
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="B107" t="s">
+        <v>562</v>
+      </c>
+      <c r="C107" t="s">
+        <v>507</v>
+      </c>
+      <c r="D107" t="s">
+        <v>528</v>
+      </c>
+      <c r="E107" t="s">
+        <v>539</v>
+      </c>
+      <c r="F107" t="s">
         <v>550</v>
       </c>
-      <c r="E77" t="s">
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="B108" t="s">
+        <v>509</v>
+      </c>
+      <c r="C108" t="s">
+        <v>512</v>
+      </c>
+      <c r="D108" t="s">
+        <v>529</v>
+      </c>
+      <c r="E108" t="s">
+        <v>529</v>
+      </c>
+      <c r="F108" t="s">
         <v>551</v>
       </c>
-      <c r="F77" t="s">
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="B109" t="s">
+        <v>511</v>
+      </c>
+      <c r="C109" t="s">
+        <v>513</v>
+      </c>
+      <c r="D109" t="s">
+        <v>530</v>
+      </c>
+      <c r="E109" t="s">
+        <v>540</v>
+      </c>
+      <c r="F109" t="s">
         <v>552</v>
       </c>
-      <c r="G77" t="s">
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="B110" t="s">
+        <v>563</v>
+      </c>
+      <c r="C110" t="s">
+        <v>515</v>
+      </c>
+      <c r="D110" t="s">
+        <v>531</v>
+      </c>
+      <c r="E110" t="s">
+        <v>541</v>
+      </c>
+      <c r="F110" t="s">
         <v>553</v>
       </c>
-      <c r="H77" t="s">
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="B111" t="s">
+        <v>566</v>
+      </c>
+      <c r="C111" t="s">
+        <v>568</v>
+      </c>
+      <c r="D111" t="s">
+        <v>570</v>
+      </c>
+      <c r="E111" t="s">
+        <v>572</v>
+      </c>
+      <c r="F111" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="11" t="s">
+        <v>557</v>
+      </c>
+      <c r="B112" t="s">
+        <v>567</v>
+      </c>
+      <c r="C112" t="s">
+        <v>569</v>
+      </c>
+      <c r="D112" t="s">
+        <v>571</v>
+      </c>
+      <c r="E112" t="s">
+        <v>573</v>
+      </c>
+      <c r="F112" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="B113" t="s">
+        <v>564</v>
+      </c>
+      <c r="C113" t="s">
+        <v>576</v>
+      </c>
+      <c r="D113" t="s">
+        <v>577</v>
+      </c>
+      <c r="E113" t="s">
+        <v>578</v>
+      </c>
+      <c r="F113" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="B114" t="s">
+        <v>629</v>
+      </c>
+      <c r="C114" t="s">
+        <v>630</v>
+      </c>
+      <c r="D114" t="s">
+        <v>631</v>
+      </c>
+      <c r="E114" t="s">
+        <v>632</v>
+      </c>
+      <c r="F114" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="B115" t="s">
+        <v>565</v>
+      </c>
+      <c r="C115" t="s">
+        <v>518</v>
+      </c>
+      <c r="D115" t="s">
+        <v>532</v>
+      </c>
+      <c r="E115" t="s">
+        <v>542</v>
+      </c>
+      <c r="F115" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="G84" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="H84" s="5" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="10" t="s">
-        <v>463</v>
-      </c>
-      <c r="B85" s="19" t="s">
-        <v>462</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="G85" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="H85" s="5" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="10" t="s">
-        <v>460</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="G86" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="H86" s="5" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="10" t="s">
-        <v>464</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="G87" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="H87" s="5" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="F88" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="G88" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="H88" s="5" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="10" t="s">
-        <v>469</v>
-      </c>
-      <c r="B89" t="s">
-        <v>470</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>514</v>
-      </c>
-      <c r="G89" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="H89" s="5" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="B90" s="19" t="s">
-        <v>471</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>518</v>
-      </c>
-      <c r="E90" s="5" t="s">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="10" t="s">
         <v>519</v>
       </c>
-      <c r="F90" s="5" t="s">
+      <c r="B116" t="s">
         <v>520</v>
       </c>
-      <c r="G90" s="5" t="s">
+      <c r="C116" t="s">
         <v>521</v>
       </c>
-      <c r="H90" s="5" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="10" t="s">
-        <v>475</v>
-      </c>
-      <c r="B91" t="s">
-        <v>476</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>523</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>525</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>526</v>
-      </c>
-      <c r="G91" s="5" t="s">
-        <v>527</v>
-      </c>
-      <c r="H91" s="5" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="10" t="s">
-        <v>474</v>
-      </c>
-      <c r="B92" t="s">
-        <v>473</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>529</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="G92" s="5" t="s">
+      <c r="D116" t="s">
         <v>533</v>
       </c>
-      <c r="H92" s="5" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="10" t="s">
-        <v>477</v>
-      </c>
-      <c r="B93" t="s">
-        <v>478</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>537</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="G93" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="H93" s="5" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="10" t="s">
-        <v>480</v>
-      </c>
-      <c r="B94" t="s">
-        <v>479</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="F94" s="5" t="s">
+      <c r="E116" t="s">
         <v>543</v>
       </c>
-      <c r="G94" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="H94" s="5" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="14" t="s">
+      <c r="F116" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="B118" t="s">
+        <v>584</v>
+      </c>
+      <c r="C118" t="s">
+        <v>580</v>
+      </c>
+      <c r="D118" t="s">
+        <v>581</v>
+      </c>
+      <c r="E118" t="s">
+        <v>582</v>
+      </c>
+      <c r="F118" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="B119" t="s">
+        <v>587</v>
+      </c>
+      <c r="C119" t="s">
+        <v>588</v>
+      </c>
+      <c r="D119" t="s">
+        <v>589</v>
+      </c>
+      <c r="E119" t="s">
+        <v>590</v>
+      </c>
+      <c r="F119" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B120" t="s">
+        <v>593</v>
+      </c>
+      <c r="C120" t="s">
+        <v>594</v>
+      </c>
+      <c r="D120" t="s">
+        <v>595</v>
+      </c>
+      <c r="E120" t="s">
+        <v>596</v>
+      </c>
+      <c r="F120" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="10" t="s">
+        <v>599</v>
+      </c>
+      <c r="B121" t="s">
+        <v>598</v>
+      </c>
+      <c r="C121" t="s">
+        <v>600</v>
+      </c>
+      <c r="D121" t="s">
+        <v>601</v>
+      </c>
+      <c r="E121" t="s">
+        <v>602</v>
+      </c>
+      <c r="F121" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="B122" t="s">
+        <v>604</v>
+      </c>
+      <c r="C122" t="s">
+        <v>606</v>
+      </c>
+      <c r="D122" t="s">
+        <v>607</v>
+      </c>
+      <c r="E122" t="s">
+        <v>608</v>
+      </c>
+      <c r="F122" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="10" t="s">
+        <v>610</v>
+      </c>
+      <c r="B123" t="s">
+        <v>613</v>
+      </c>
+      <c r="C123" t="s">
+        <v>614</v>
+      </c>
+      <c r="D123" t="s">
+        <v>615</v>
+      </c>
+      <c r="E123" t="s">
+        <v>616</v>
+      </c>
+      <c r="F123" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="10" t="s">
+        <v>611</v>
+      </c>
+      <c r="B124" t="s">
+        <v>618</v>
+      </c>
+      <c r="C124" t="s">
+        <v>619</v>
+      </c>
+      <c r="D124" t="s">
+        <v>620</v>
+      </c>
+      <c r="E124" t="s">
+        <v>621</v>
+      </c>
+      <c r="F124" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="B125" t="s">
+        <v>623</v>
+      </c>
+      <c r="C125" t="s">
+        <v>624</v>
+      </c>
+      <c r="D125" t="s">
+        <v>625</v>
+      </c>
+      <c r="E125" t="s">
+        <v>626</v>
+      </c>
+      <c r="F125" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="10" t="s">
+        <v>742</v>
+      </c>
+      <c r="B127" t="s">
+        <v>692</v>
+      </c>
+      <c r="C127" t="s">
+        <v>693</v>
+      </c>
+      <c r="D127" t="s">
+        <v>694</v>
+      </c>
+      <c r="E127" t="s">
+        <v>695</v>
+      </c>
+      <c r="F127" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="10" t="s">
+        <v>743</v>
+      </c>
+      <c r="B128" t="s">
+        <v>737</v>
+      </c>
+      <c r="C128" t="s">
+        <v>738</v>
+      </c>
+      <c r="D128" t="s">
+        <v>739</v>
+      </c>
+      <c r="E128" t="s">
+        <v>740</v>
+      </c>
+      <c r="F128" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="10" t="s">
+        <v>744</v>
+      </c>
+      <c r="B129" t="s">
+        <v>703</v>
+      </c>
+      <c r="C129" t="s">
+        <v>704</v>
+      </c>
+      <c r="D129" t="s">
+        <v>705</v>
+      </c>
+      <c r="E129" t="s">
+        <v>706</v>
+      </c>
+      <c r="F129" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="10" t="s">
+        <v>745</v>
+      </c>
+      <c r="B130" t="s">
+        <v>732</v>
+      </c>
+      <c r="C130" t="s">
+        <v>733</v>
+      </c>
+      <c r="D130" t="s">
+        <v>734</v>
+      </c>
+      <c r="E130" t="s">
+        <v>735</v>
+      </c>
+      <c r="F130" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="10" t="s">
+        <v>746</v>
+      </c>
+      <c r="B131" t="s">
+        <v>697</v>
+      </c>
+      <c r="C131" t="s">
+        <v>698</v>
+      </c>
+      <c r="D131" t="s">
+        <v>699</v>
+      </c>
+      <c r="E131" t="s">
+        <v>700</v>
+      </c>
+      <c r="F131" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="10" t="s">
+        <v>747</v>
+      </c>
+      <c r="B132" t="s">
+        <v>727</v>
+      </c>
+      <c r="C132" t="s">
+        <v>728</v>
+      </c>
+      <c r="D132" t="s">
+        <v>729</v>
+      </c>
+      <c r="E132" t="s">
+        <v>730</v>
+      </c>
+      <c r="F132" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="B133" t="s">
+        <v>702</v>
+      </c>
+      <c r="C133" t="s">
+        <v>708</v>
+      </c>
+      <c r="D133" t="s">
+        <v>709</v>
+      </c>
+      <c r="E133" t="s">
+        <v>710</v>
+      </c>
+      <c r="F133" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="10" t="s">
+        <v>749</v>
+      </c>
+      <c r="B134" t="s">
+        <v>722</v>
+      </c>
+      <c r="C134" t="s">
+        <v>723</v>
+      </c>
+      <c r="D134" t="s">
+        <v>724</v>
+      </c>
+      <c r="E134" t="s">
+        <v>725</v>
+      </c>
+      <c r="F134" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="10" t="s">
+        <v>750</v>
+      </c>
+      <c r="B135" t="s">
+        <v>712</v>
+      </c>
+      <c r="C135" t="s">
+        <v>713</v>
+      </c>
+      <c r="D135" t="s">
+        <v>714</v>
+      </c>
+      <c r="E135" t="s">
+        <v>715</v>
+      </c>
+      <c r="F135" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="10" t="s">
+        <v>751</v>
+      </c>
+      <c r="B136" t="s">
+        <v>717</v>
+      </c>
+      <c r="C136" t="s">
+        <v>718</v>
+      </c>
+      <c r="D136" t="s">
+        <v>719</v>
+      </c>
+      <c r="E136" t="s">
+        <v>720</v>
+      </c>
+      <c r="F136" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="14" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="10" t="s">
+        <v>655</v>
+      </c>
+      <c r="B139" t="s">
+        <v>753</v>
+      </c>
+      <c r="C139" t="s">
+        <v>635</v>
+      </c>
+      <c r="D139" t="s">
+        <v>636</v>
+      </c>
+      <c r="E139" t="s">
+        <v>637</v>
+      </c>
+      <c r="F139" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="10" t="s">
+        <v>691</v>
+      </c>
+      <c r="B140" t="s">
+        <v>686</v>
+      </c>
+      <c r="C140" t="s">
+        <v>687</v>
+      </c>
+      <c r="D140" t="s">
+        <v>688</v>
+      </c>
+      <c r="E140" t="s">
+        <v>689</v>
+      </c>
+      <c r="F140" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="10" t="s">
+        <v>656</v>
+      </c>
+      <c r="B141" t="s">
+        <v>752</v>
+      </c>
+      <c r="C141" t="s">
+        <v>651</v>
+      </c>
+      <c r="D141" t="s">
+        <v>652</v>
+      </c>
+      <c r="E141" t="s">
+        <v>653</v>
+      </c>
+      <c r="F141" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="10" t="s">
+        <v>662</v>
+      </c>
+      <c r="B142" t="s">
+        <v>657</v>
+      </c>
+      <c r="C142" t="s">
+        <v>658</v>
+      </c>
+      <c r="D142" t="s">
+        <v>659</v>
+      </c>
+      <c r="E142" t="s">
+        <v>660</v>
+      </c>
+      <c r="F142" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="10" t="s">
+        <v>663</v>
+      </c>
+      <c r="B143" t="s">
+        <v>664</v>
+      </c>
+      <c r="C143" t="s">
+        <v>671</v>
+      </c>
+      <c r="D143" t="s">
+        <v>672</v>
+      </c>
+      <c r="E143" t="s">
+        <v>672</v>
+      </c>
+      <c r="F143" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="B144" t="s">
+        <v>680</v>
+      </c>
+      <c r="C144" t="s">
+        <v>682</v>
+      </c>
+      <c r="D144" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="10" t="s">
-        <v>638</v>
-      </c>
-      <c r="B96" t="s">
-        <v>639</v>
-      </c>
-      <c r="C96" t="s">
-        <v>640</v>
-      </c>
-      <c r="D96" t="s">
-        <v>641</v>
-      </c>
-      <c r="E96" t="s">
-        <v>640</v>
-      </c>
-      <c r="F96" t="s">
-        <v>642</v>
-      </c>
-      <c r="G96" t="s">
-        <v>643</v>
-      </c>
-      <c r="H96" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="11" t="s">
-        <v>645</v>
-      </c>
-      <c r="B97" t="s">
-        <v>743</v>
-      </c>
-      <c r="C97" t="s">
-        <v>646</v>
-      </c>
-      <c r="D97" t="s">
-        <v>647</v>
-      </c>
-      <c r="E97" t="s">
-        <v>648</v>
-      </c>
-      <c r="F97" t="s">
-        <v>649</v>
-      </c>
-      <c r="G97" t="s">
-        <v>650</v>
-      </c>
-      <c r="H97" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="11" t="s">
-        <v>652</v>
-      </c>
-      <c r="B98" t="s">
-        <v>744</v>
-      </c>
-      <c r="C98" t="s">
-        <v>653</v>
-      </c>
-      <c r="D98" t="s">
+      <c r="E144" t="s">
         <v>684</v>
       </c>
-      <c r="E98" t="s">
-        <v>695</v>
-      </c>
-      <c r="F98" t="s">
-        <v>705</v>
-      </c>
-      <c r="G98" t="s">
-        <v>717</v>
-      </c>
-      <c r="H98" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="11" t="s">
-        <v>654</v>
-      </c>
-      <c r="B99" t="s">
-        <v>745</v>
-      </c>
-      <c r="C99" t="s">
-        <v>655</v>
-      </c>
-      <c r="D99" t="s">
+      <c r="F144" t="s">
         <v>685</v>
       </c>
-      <c r="E99" t="s">
-        <v>696</v>
-      </c>
-      <c r="F99" t="s">
-        <v>706</v>
-      </c>
-      <c r="G99" t="s">
-        <v>718</v>
-      </c>
-      <c r="H99" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="11" t="s">
-        <v>656</v>
-      </c>
-      <c r="B100" t="s">
-        <v>657</v>
-      </c>
-      <c r="C100" t="s">
-        <v>658</v>
-      </c>
-      <c r="D100" t="s">
-        <v>658</v>
-      </c>
-      <c r="E100" t="s">
-        <v>658</v>
-      </c>
-      <c r="F100" t="s">
-        <v>707</v>
-      </c>
-      <c r="G100" t="s">
-        <v>719</v>
-      </c>
-      <c r="H100" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="11" t="s">
-        <v>660</v>
-      </c>
-      <c r="B101" t="s">
-        <v>746</v>
-      </c>
-      <c r="C101" t="s">
-        <v>659</v>
-      </c>
-      <c r="D101" t="s">
-        <v>686</v>
-      </c>
-      <c r="E101" t="s">
-        <v>697</v>
-      </c>
-      <c r="F101" t="s">
-        <v>708</v>
-      </c>
-      <c r="G101" t="s">
-        <v>720</v>
-      </c>
-      <c r="H101" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="11" t="s">
-        <v>661</v>
-      </c>
-      <c r="B102" t="s">
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="10" t="s">
         <v>665</v>
       </c>
-      <c r="C102" t="s">
-        <v>663</v>
-      </c>
-      <c r="D102" t="s">
-        <v>687</v>
-      </c>
-      <c r="E102" t="s">
-        <v>698</v>
-      </c>
-      <c r="F102" t="s">
-        <v>709</v>
-      </c>
-      <c r="G102" t="s">
-        <v>721</v>
-      </c>
-      <c r="H102" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="11" t="s">
-        <v>662</v>
-      </c>
-      <c r="B103" t="s">
+      <c r="B145" t="s">
         <v>666</v>
       </c>
-      <c r="C103" t="s">
-        <v>664</v>
-      </c>
-      <c r="D103" t="s">
-        <v>688</v>
-      </c>
-      <c r="E103" t="s">
-        <v>699</v>
-      </c>
-      <c r="F103" t="s">
-        <v>710</v>
-      </c>
-      <c r="G103" t="s">
-        <v>722</v>
-      </c>
-      <c r="H103" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="11" t="s">
+      <c r="C145" t="s">
         <v>667</v>
       </c>
-      <c r="B104" t="s">
-        <v>747</v>
-      </c>
-      <c r="C104" t="s">
+      <c r="D145" t="s">
         <v>668</v>
       </c>
-      <c r="D104" t="s">
-        <v>689</v>
-      </c>
-      <c r="E104" t="s">
-        <v>700</v>
-      </c>
-      <c r="F104" t="s">
-        <v>711</v>
-      </c>
-      <c r="G104" t="s">
-        <v>723</v>
-      </c>
-      <c r="H104" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="11" t="s">
+      <c r="E145" t="s">
         <v>669</v>
       </c>
-      <c r="B105" t="s">
+      <c r="F145" t="s">
         <v>670</v>
       </c>
-      <c r="C105" t="s">
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="10" t="s">
+        <v>674</v>
+      </c>
+      <c r="B146" t="s">
         <v>673</v>
       </c>
-      <c r="D105" t="s">
-        <v>690</v>
-      </c>
-      <c r="E105" t="s">
-        <v>690</v>
-      </c>
-      <c r="F105" t="s">
-        <v>712</v>
-      </c>
-      <c r="G105" t="s">
-        <v>724</v>
-      </c>
-      <c r="H105" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="11" t="s">
-        <v>671</v>
-      </c>
-      <c r="B106" t="s">
-        <v>672</v>
-      </c>
-      <c r="C106" t="s">
-        <v>674</v>
-      </c>
-      <c r="D106" t="s">
-        <v>691</v>
-      </c>
-      <c r="E106" t="s">
-        <v>701</v>
-      </c>
-      <c r="F106" t="s">
-        <v>713</v>
-      </c>
-      <c r="G106" t="s">
-        <v>725</v>
-      </c>
-      <c r="H106" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="11" t="s">
+      <c r="C146" t="s">
         <v>675</v>
       </c>
-      <c r="B107" t="s">
-        <v>748</v>
-      </c>
-      <c r="C107" t="s">
+      <c r="D146" t="s">
         <v>676</v>
       </c>
-      <c r="D107" t="s">
-        <v>692</v>
-      </c>
-      <c r="E107" t="s">
-        <v>702</v>
-      </c>
-      <c r="F107" t="s">
-        <v>714</v>
-      </c>
-      <c r="G107" t="s">
-        <v>726</v>
-      </c>
-      <c r="H107" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="11" t="s">
-        <v>741</v>
-      </c>
-      <c r="B108" t="s">
-        <v>751</v>
-      </c>
-      <c r="C108" t="s">
-        <v>753</v>
-      </c>
-      <c r="D108" t="s">
-        <v>755</v>
-      </c>
-      <c r="E108" t="s">
-        <v>757</v>
-      </c>
-      <c r="F108" t="s">
-        <v>762</v>
-      </c>
-      <c r="G108" t="s">
-        <v>759</v>
-      </c>
-      <c r="H108" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="11" t="s">
-        <v>742</v>
-      </c>
-      <c r="B109" t="s">
-        <v>752</v>
-      </c>
-      <c r="C109" t="s">
-        <v>754</v>
-      </c>
-      <c r="D109" t="s">
-        <v>756</v>
-      </c>
-      <c r="E109" t="s">
-        <v>758</v>
-      </c>
-      <c r="F109" t="s">
-        <v>761</v>
-      </c>
-      <c r="G109" t="s">
-        <v>760</v>
-      </c>
-      <c r="H109" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="10" t="s">
+      <c r="E146" t="s">
         <v>677</v>
       </c>
-      <c r="B110" t="s">
-        <v>749</v>
-      </c>
-      <c r="C110" t="s">
-        <v>765</v>
-      </c>
-      <c r="D110" t="s">
-        <v>766</v>
-      </c>
-      <c r="E110" t="s">
-        <v>767</v>
-      </c>
-      <c r="F110" t="s">
-        <v>768</v>
-      </c>
-      <c r="G110" t="s">
-        <v>769</v>
-      </c>
-      <c r="H110" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="10" t="s">
-        <v>835</v>
-      </c>
-      <c r="B111" t="s">
-        <v>836</v>
-      </c>
-      <c r="C111" t="s">
-        <v>837</v>
-      </c>
-      <c r="D111" t="s">
-        <v>838</v>
-      </c>
-      <c r="E111" t="s">
-        <v>839</v>
-      </c>
-      <c r="F111" t="s">
-        <v>840</v>
-      </c>
-      <c r="G111" t="s">
-        <v>841</v>
-      </c>
-      <c r="H111" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="10" t="s">
+      <c r="F146" t="s">
         <v>678</v>
-      </c>
-      <c r="B112" t="s">
-        <v>750</v>
-      </c>
-      <c r="C112" t="s">
-        <v>679</v>
-      </c>
-      <c r="D112" t="s">
-        <v>693</v>
-      </c>
-      <c r="E112" t="s">
-        <v>703</v>
-      </c>
-      <c r="F112" t="s">
-        <v>715</v>
-      </c>
-      <c r="G112" t="s">
-        <v>727</v>
-      </c>
-      <c r="H112" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="10" t="s">
-        <v>680</v>
-      </c>
-      <c r="B113" t="s">
-        <v>681</v>
-      </c>
-      <c r="C113" t="s">
-        <v>682</v>
-      </c>
-      <c r="D113" t="s">
-        <v>694</v>
-      </c>
-      <c r="E113" t="s">
-        <v>704</v>
-      </c>
-      <c r="F113" t="s">
-        <v>716</v>
-      </c>
-      <c r="G113" t="s">
-        <v>728</v>
-      </c>
-      <c r="H113" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="10" t="s">
-        <v>778</v>
-      </c>
-      <c r="B115" t="s">
-        <v>777</v>
-      </c>
-      <c r="C115" t="s">
-        <v>771</v>
-      </c>
-      <c r="D115" t="s">
-        <v>772</v>
-      </c>
-      <c r="E115" t="s">
-        <v>773</v>
-      </c>
-      <c r="F115" t="s">
-        <v>774</v>
-      </c>
-      <c r="G115" t="s">
-        <v>775</v>
-      </c>
-      <c r="H115" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="10" t="s">
-        <v>779</v>
-      </c>
-      <c r="B116" t="s">
-        <v>780</v>
-      </c>
-      <c r="C116" t="s">
-        <v>781</v>
-      </c>
-      <c r="D116" t="s">
-        <v>782</v>
-      </c>
-      <c r="E116" t="s">
-        <v>783</v>
-      </c>
-      <c r="F116" t="s">
-        <v>784</v>
-      </c>
-      <c r="G116" t="s">
-        <v>785</v>
-      </c>
-      <c r="H116" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="10" t="s">
-        <v>787</v>
-      </c>
-      <c r="B117" t="s">
-        <v>788</v>
-      </c>
-      <c r="C117" t="s">
-        <v>789</v>
-      </c>
-      <c r="D117" t="s">
-        <v>790</v>
-      </c>
-      <c r="E117" t="s">
-        <v>791</v>
-      </c>
-      <c r="F117" t="s">
-        <v>792</v>
-      </c>
-      <c r="G117" t="s">
-        <v>793</v>
-      </c>
-      <c r="H117" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="10" t="s">
-        <v>796</v>
-      </c>
-      <c r="B118" t="s">
-        <v>795</v>
-      </c>
-      <c r="C118" t="s">
-        <v>797</v>
-      </c>
-      <c r="D118" t="s">
-        <v>798</v>
-      </c>
-      <c r="E118" t="s">
-        <v>799</v>
-      </c>
-      <c r="F118" t="s">
-        <v>800</v>
-      </c>
-      <c r="G118" t="s">
-        <v>801</v>
-      </c>
-      <c r="H118" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="10" t="s">
-        <v>804</v>
-      </c>
-      <c r="B119" t="s">
-        <v>803</v>
-      </c>
-      <c r="C119" t="s">
-        <v>805</v>
-      </c>
-      <c r="D119" t="s">
-        <v>806</v>
-      </c>
-      <c r="E119" t="s">
-        <v>807</v>
-      </c>
-      <c r="F119" t="s">
-        <v>808</v>
-      </c>
-      <c r="G119" t="s">
-        <v>809</v>
-      </c>
-      <c r="H119" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="10" t="s">
-        <v>811</v>
-      </c>
-      <c r="B120" t="s">
-        <v>814</v>
-      </c>
-      <c r="C120" t="s">
-        <v>815</v>
-      </c>
-      <c r="D120" t="s">
-        <v>816</v>
-      </c>
-      <c r="E120" t="s">
-        <v>817</v>
-      </c>
-      <c r="F120" t="s">
-        <v>818</v>
-      </c>
-      <c r="G120" t="s">
-        <v>819</v>
-      </c>
-      <c r="H120" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="10" t="s">
-        <v>812</v>
-      </c>
-      <c r="B121" t="s">
-        <v>821</v>
-      </c>
-      <c r="C121" t="s">
-        <v>822</v>
-      </c>
-      <c r="D121" t="s">
-        <v>823</v>
-      </c>
-      <c r="E121" t="s">
-        <v>824</v>
-      </c>
-      <c r="F121" t="s">
-        <v>825</v>
-      </c>
-      <c r="G121" t="s">
-        <v>826</v>
-      </c>
-      <c r="H121" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="10" t="s">
-        <v>813</v>
-      </c>
-      <c r="B122" t="s">
-        <v>828</v>
-      </c>
-      <c r="C122" t="s">
-        <v>829</v>
-      </c>
-      <c r="D122" t="s">
-        <v>830</v>
-      </c>
-      <c r="E122" t="s">
-        <v>831</v>
-      </c>
-      <c r="F122" t="s">
-        <v>832</v>
-      </c>
-      <c r="G122" t="s">
-        <v>833</v>
-      </c>
-      <c r="H122" t="s">
-        <v>834</v>
       </c>
     </row>
   </sheetData>

--- a/sd-hub-translations.xlsx
+++ b/sd-hub-translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\A1111\extensions\sd-hub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C47C30A-51B3-4308-9340-CE6826B71B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC3B11F-070F-473D-B469-BD15F80D8647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{3ED67704-AF6D-45B2-B79F-70598EE793EA}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="778">
   <si>
     <t>Key</t>
   </si>
@@ -2282,6 +2282,78 @@
   </si>
   <si>
     <t>Switching Tab will clear all {{number}} selected image. &lt;br&gt;Continue?</t>
+  </si>
+  <si>
+    <t>clear_image</t>
+  </si>
+  <si>
+    <t>Clear Image</t>
+  </si>
+  <si>
+    <t>画像をクリア</t>
+  </si>
+  <si>
+    <t>清除图像</t>
+  </si>
+  <si>
+    <t>影像</t>
+  </si>
+  <si>
+    <t>이미지 지우기</t>
+  </si>
+  <si>
+    <t>Post Processing</t>
+  </si>
+  <si>
+    <t>post_processing</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>software</t>
+  </si>
+  <si>
+    <t>ポストプロセッシング</t>
+  </si>
+  <si>
+    <t>后期处理</t>
+  </si>
+  <si>
+    <t>後期處理</t>
+  </si>
+  <si>
+    <t>후처리</t>
+  </si>
+  <si>
+    <t>ソフトウェア</t>
+  </si>
+  <si>
+    <t>软件</t>
+  </si>
+  <si>
+    <t>軟體</t>
+  </si>
+  <si>
+    <t>소프트웨어</t>
+  </si>
+  <si>
+    <t>ソース</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>来源</t>
+  </si>
+  <si>
+    <t>來源</t>
+  </si>
+  <si>
+    <t>소스</t>
   </si>
 </sst>
 </file>
@@ -3193,10 +3265,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780E0960-BCEF-42B8-BB82-3303C65E8F3F}">
-  <dimension ref="A1:F146"/>
+  <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="B141" sqref="B141"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4714,1160 +4786,1246 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="7"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
+      <c r="A83" s="7" t="s">
+        <v>754</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>759</v>
+      </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="A84" s="7"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B86" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D86" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="E86" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F85" s="1" t="s">
+      <c r="F86" s="1" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="B88" s="19" t="s">
-        <v>349</v>
+        <v>346</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>352</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
+      </c>
+      <c r="B89" s="19" t="s">
+        <v>349</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="B92" t="s">
-        <v>357</v>
+        <v>348</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>355</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="B93" s="19" t="s">
-        <v>358</v>
+        <v>356</v>
+      </c>
+      <c r="B93" t="s">
+        <v>357</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="B94" t="s">
-        <v>363</v>
+        <v>359</v>
+      </c>
+      <c r="B94" s="19" t="s">
+        <v>358</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B95" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B96" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="B97" t="s">
+        <v>365</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B98" t="s">
         <v>366</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="C98" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="D97" s="5" t="s">
+      <c r="D98" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="E97" s="5" t="s">
+      <c r="E98" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="F97" s="5" t="s">
+      <c r="F98" s="5" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="98" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="14" t="s">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="10" t="s">
+        <v>761</v>
+      </c>
+      <c r="B100" t="s">
+        <v>760</v>
+      </c>
+      <c r="C100" t="s">
+        <v>764</v>
+      </c>
+      <c r="D100" t="s">
+        <v>765</v>
+      </c>
+      <c r="E100" t="s">
+        <v>766</v>
+      </c>
+      <c r="F100" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="10" t="s">
+        <v>763</v>
+      </c>
+      <c r="B101" t="s">
+        <v>762</v>
+      </c>
+      <c r="C101" t="s">
+        <v>768</v>
+      </c>
+      <c r="D101" t="s">
+        <v>769</v>
+      </c>
+      <c r="E101" t="s">
+        <v>770</v>
+      </c>
+      <c r="F101" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="10" t="s">
+        <v>774</v>
+      </c>
+      <c r="B102" t="s">
+        <v>773</v>
+      </c>
+      <c r="C102" t="s">
+        <v>772</v>
+      </c>
+      <c r="D102" t="s">
+        <v>775</v>
+      </c>
+      <c r="E102" t="s">
+        <v>776</v>
+      </c>
+      <c r="F102" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="14" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="10" t="s">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B104" t="s">
         <v>482</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C104" t="s">
         <v>483</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D104" t="s">
         <v>484</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E104" t="s">
         <v>483</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F104" t="s">
         <v>485</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="11" t="s">
-        <v>486</v>
-      </c>
-      <c r="B100" t="s">
-        <v>558</v>
-      </c>
-      <c r="C100" t="s">
-        <v>487</v>
-      </c>
-      <c r="D100" t="s">
-        <v>488</v>
-      </c>
-      <c r="E100" t="s">
-        <v>489</v>
-      </c>
-      <c r="F100" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="11" t="s">
-        <v>491</v>
-      </c>
-      <c r="B101" t="s">
-        <v>559</v>
-      </c>
-      <c r="C101" t="s">
-        <v>492</v>
-      </c>
-      <c r="D101" t="s">
-        <v>523</v>
-      </c>
-      <c r="E101" t="s">
-        <v>534</v>
-      </c>
-      <c r="F101" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="11" t="s">
-        <v>493</v>
-      </c>
-      <c r="B102" t="s">
-        <v>560</v>
-      </c>
-      <c r="C102" t="s">
-        <v>494</v>
-      </c>
-      <c r="D102" t="s">
-        <v>524</v>
-      </c>
-      <c r="E102" t="s">
-        <v>535</v>
-      </c>
-      <c r="F102" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="B103" t="s">
-        <v>496</v>
-      </c>
-      <c r="C103" t="s">
-        <v>497</v>
-      </c>
-      <c r="D103" t="s">
-        <v>497</v>
-      </c>
-      <c r="E103" t="s">
-        <v>497</v>
-      </c>
-      <c r="F103" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="11" t="s">
-        <v>499</v>
-      </c>
-      <c r="B104" t="s">
-        <v>561</v>
-      </c>
-      <c r="C104" t="s">
-        <v>498</v>
-      </c>
-      <c r="D104" t="s">
-        <v>525</v>
-      </c>
-      <c r="E104" t="s">
-        <v>536</v>
-      </c>
-      <c r="F104" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="B105" t="s">
-        <v>504</v>
+        <v>558</v>
       </c>
       <c r="C105" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="D105" t="s">
-        <v>526</v>
+        <v>488</v>
       </c>
       <c r="E105" t="s">
-        <v>537</v>
+        <v>489</v>
       </c>
       <c r="F105" t="s">
-        <v>548</v>
+        <v>490</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="B106" t="s">
-        <v>505</v>
+        <v>559</v>
       </c>
       <c r="C106" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="D106" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="E106" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="F106" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="B107" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C107" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="D107" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="E107" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="F107" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="B108" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="C108" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="D108" t="s">
-        <v>529</v>
+        <v>497</v>
       </c>
       <c r="E108" t="s">
-        <v>529</v>
+        <v>497</v>
       </c>
       <c r="F108" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="B109" t="s">
-        <v>511</v>
+        <v>561</v>
       </c>
       <c r="C109" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="D109" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="E109" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="F109" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="B110" t="s">
-        <v>563</v>
+        <v>504</v>
       </c>
       <c r="C110" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="D110" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="E110" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F110" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
-        <v>556</v>
+        <v>501</v>
       </c>
       <c r="B111" t="s">
-        <v>566</v>
+        <v>505</v>
       </c>
       <c r="C111" t="s">
-        <v>568</v>
+        <v>503</v>
       </c>
       <c r="D111" t="s">
-        <v>570</v>
+        <v>527</v>
       </c>
       <c r="E111" t="s">
-        <v>572</v>
+        <v>538</v>
       </c>
       <c r="F111" t="s">
-        <v>574</v>
+        <v>549</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="B112" t="s">
+        <v>562</v>
+      </c>
+      <c r="C112" t="s">
+        <v>507</v>
+      </c>
+      <c r="D112" t="s">
+        <v>528</v>
+      </c>
+      <c r="E112" t="s">
+        <v>539</v>
+      </c>
+      <c r="F112" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="B113" t="s">
+        <v>509</v>
+      </c>
+      <c r="C113" t="s">
+        <v>512</v>
+      </c>
+      <c r="D113" t="s">
+        <v>529</v>
+      </c>
+      <c r="E113" t="s">
+        <v>529</v>
+      </c>
+      <c r="F113" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="B114" t="s">
+        <v>511</v>
+      </c>
+      <c r="C114" t="s">
+        <v>513</v>
+      </c>
+      <c r="D114" t="s">
+        <v>530</v>
+      </c>
+      <c r="E114" t="s">
+        <v>540</v>
+      </c>
+      <c r="F114" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="B115" t="s">
+        <v>563</v>
+      </c>
+      <c r="C115" t="s">
+        <v>515</v>
+      </c>
+      <c r="D115" t="s">
+        <v>531</v>
+      </c>
+      <c r="E115" t="s">
+        <v>541</v>
+      </c>
+      <c r="F115" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="B116" t="s">
+        <v>566</v>
+      </c>
+      <c r="C116" t="s">
+        <v>568</v>
+      </c>
+      <c r="D116" t="s">
+        <v>570</v>
+      </c>
+      <c r="E116" t="s">
+        <v>572</v>
+      </c>
+      <c r="F116" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="11" t="s">
         <v>557</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B117" t="s">
         <v>567</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C117" t="s">
         <v>569</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D117" t="s">
         <v>571</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E117" t="s">
         <v>573</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F117" t="s">
         <v>575</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="10" t="s">
-        <v>516</v>
-      </c>
-      <c r="B113" t="s">
-        <v>564</v>
-      </c>
-      <c r="C113" t="s">
-        <v>576</v>
-      </c>
-      <c r="D113" t="s">
-        <v>577</v>
-      </c>
-      <c r="E113" t="s">
-        <v>578</v>
-      </c>
-      <c r="F113" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="10" t="s">
-        <v>628</v>
-      </c>
-      <c r="B114" t="s">
-        <v>629</v>
-      </c>
-      <c r="C114" t="s">
-        <v>630</v>
-      </c>
-      <c r="D114" t="s">
-        <v>631</v>
-      </c>
-      <c r="E114" t="s">
-        <v>632</v>
-      </c>
-      <c r="F114" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="10" t="s">
-        <v>517</v>
-      </c>
-      <c r="B115" t="s">
-        <v>565</v>
-      </c>
-      <c r="C115" t="s">
-        <v>518</v>
-      </c>
-      <c r="D115" t="s">
-        <v>532</v>
-      </c>
-      <c r="E115" t="s">
-        <v>542</v>
-      </c>
-      <c r="F115" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="10" t="s">
-        <v>519</v>
-      </c>
-      <c r="B116" t="s">
-        <v>520</v>
-      </c>
-      <c r="C116" t="s">
-        <v>521</v>
-      </c>
-      <c r="D116" t="s">
-        <v>533</v>
-      </c>
-      <c r="E116" t="s">
-        <v>543</v>
-      </c>
-      <c r="F116" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
-        <v>585</v>
+        <v>516</v>
       </c>
       <c r="B118" t="s">
-        <v>584</v>
+        <v>564</v>
       </c>
       <c r="C118" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D118" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="E118" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="F118" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
-        <v>586</v>
+        <v>628</v>
       </c>
       <c r="B119" t="s">
-        <v>587</v>
+        <v>629</v>
       </c>
       <c r="C119" t="s">
-        <v>588</v>
+        <v>630</v>
       </c>
       <c r="D119" t="s">
-        <v>589</v>
+        <v>631</v>
       </c>
       <c r="E119" t="s">
-        <v>590</v>
+        <v>632</v>
       </c>
       <c r="F119" t="s">
-        <v>591</v>
+        <v>633</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
-        <v>592</v>
+        <v>517</v>
       </c>
       <c r="B120" t="s">
-        <v>593</v>
+        <v>565</v>
       </c>
       <c r="C120" t="s">
-        <v>594</v>
+        <v>518</v>
       </c>
       <c r="D120" t="s">
-        <v>595</v>
+        <v>532</v>
       </c>
       <c r="E120" t="s">
-        <v>596</v>
+        <v>542</v>
       </c>
       <c r="F120" t="s">
-        <v>597</v>
+        <v>554</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
-        <v>599</v>
+        <v>519</v>
       </c>
       <c r="B121" t="s">
-        <v>598</v>
+        <v>520</v>
       </c>
       <c r="C121" t="s">
-        <v>600</v>
+        <v>521</v>
       </c>
       <c r="D121" t="s">
-        <v>601</v>
+        <v>533</v>
       </c>
       <c r="E121" t="s">
-        <v>602</v>
+        <v>543</v>
       </c>
       <c r="F121" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="10" t="s">
-        <v>605</v>
-      </c>
-      <c r="B122" t="s">
-        <v>604</v>
-      </c>
-      <c r="C122" t="s">
-        <v>606</v>
-      </c>
-      <c r="D122" t="s">
-        <v>607</v>
-      </c>
-      <c r="E122" t="s">
-        <v>608</v>
-      </c>
-      <c r="F122" t="s">
-        <v>609</v>
+        <v>555</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
-        <v>610</v>
+        <v>585</v>
       </c>
       <c r="B123" t="s">
-        <v>613</v>
+        <v>584</v>
       </c>
       <c r="C123" t="s">
-        <v>614</v>
+        <v>580</v>
       </c>
       <c r="D123" t="s">
-        <v>615</v>
+        <v>581</v>
       </c>
       <c r="E123" t="s">
-        <v>616</v>
+        <v>582</v>
       </c>
       <c r="F123" t="s">
-        <v>617</v>
+        <v>583</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
-        <v>611</v>
+        <v>586</v>
       </c>
       <c r="B124" t="s">
-        <v>618</v>
+        <v>587</v>
       </c>
       <c r="C124" t="s">
-        <v>619</v>
+        <v>588</v>
       </c>
       <c r="D124" t="s">
-        <v>620</v>
+        <v>589</v>
       </c>
       <c r="E124" t="s">
-        <v>621</v>
+        <v>590</v>
       </c>
       <c r="F124" t="s">
-        <v>622</v>
+        <v>591</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="10" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="B125" t="s">
-        <v>623</v>
+        <v>593</v>
       </c>
       <c r="C125" t="s">
-        <v>624</v>
+        <v>594</v>
       </c>
       <c r="D125" t="s">
-        <v>625</v>
+        <v>595</v>
       </c>
       <c r="E125" t="s">
-        <v>626</v>
+        <v>596</v>
       </c>
       <c r="F125" t="s">
-        <v>627</v>
+        <v>597</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="10" t="s">
+        <v>599</v>
+      </c>
+      <c r="B126" t="s">
+        <v>598</v>
+      </c>
+      <c r="C126" t="s">
+        <v>600</v>
+      </c>
+      <c r="D126" t="s">
+        <v>601</v>
+      </c>
+      <c r="E126" t="s">
+        <v>602</v>
+      </c>
+      <c r="F126" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
-        <v>742</v>
+        <v>605</v>
       </c>
       <c r="B127" t="s">
-        <v>692</v>
+        <v>604</v>
       </c>
       <c r="C127" t="s">
-        <v>693</v>
+        <v>606</v>
       </c>
       <c r="D127" t="s">
-        <v>694</v>
+        <v>607</v>
       </c>
       <c r="E127" t="s">
-        <v>695</v>
+        <v>608</v>
       </c>
       <c r="F127" t="s">
-        <v>696</v>
+        <v>609</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="10" t="s">
-        <v>743</v>
+        <v>610</v>
       </c>
       <c r="B128" t="s">
-        <v>737</v>
+        <v>613</v>
       </c>
       <c r="C128" t="s">
-        <v>738</v>
+        <v>614</v>
       </c>
       <c r="D128" t="s">
-        <v>739</v>
+        <v>615</v>
       </c>
       <c r="E128" t="s">
-        <v>740</v>
+        <v>616</v>
       </c>
       <c r="F128" t="s">
-        <v>741</v>
+        <v>617</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="10" t="s">
-        <v>744</v>
+        <v>611</v>
       </c>
       <c r="B129" t="s">
-        <v>703</v>
+        <v>618</v>
       </c>
       <c r="C129" t="s">
-        <v>704</v>
+        <v>619</v>
       </c>
       <c r="D129" t="s">
-        <v>705</v>
+        <v>620</v>
       </c>
       <c r="E129" t="s">
-        <v>706</v>
+        <v>621</v>
       </c>
       <c r="F129" t="s">
-        <v>707</v>
+        <v>622</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="10" t="s">
-        <v>745</v>
+        <v>612</v>
       </c>
       <c r="B130" t="s">
-        <v>732</v>
+        <v>623</v>
       </c>
       <c r="C130" t="s">
-        <v>733</v>
+        <v>624</v>
       </c>
       <c r="D130" t="s">
-        <v>734</v>
+        <v>625</v>
       </c>
       <c r="E130" t="s">
-        <v>735</v>
+        <v>626</v>
       </c>
       <c r="F130" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="10" t="s">
-        <v>746</v>
-      </c>
-      <c r="B131" t="s">
-        <v>697</v>
-      </c>
-      <c r="C131" t="s">
-        <v>698</v>
-      </c>
-      <c r="D131" t="s">
-        <v>699</v>
-      </c>
-      <c r="E131" t="s">
-        <v>700</v>
-      </c>
-      <c r="F131" t="s">
-        <v>701</v>
+        <v>627</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="10" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="B132" t="s">
-        <v>727</v>
+        <v>692</v>
       </c>
       <c r="C132" t="s">
-        <v>728</v>
+        <v>693</v>
       </c>
       <c r="D132" t="s">
-        <v>729</v>
+        <v>694</v>
       </c>
       <c r="E132" t="s">
-        <v>730</v>
+        <v>695</v>
       </c>
       <c r="F132" t="s">
-        <v>731</v>
+        <v>696</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="10" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="B133" t="s">
-        <v>702</v>
+        <v>737</v>
       </c>
       <c r="C133" t="s">
-        <v>708</v>
+        <v>738</v>
       </c>
       <c r="D133" t="s">
-        <v>709</v>
+        <v>739</v>
       </c>
       <c r="E133" t="s">
-        <v>710</v>
+        <v>740</v>
       </c>
       <c r="F133" t="s">
-        <v>711</v>
+        <v>741</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="10" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="B134" t="s">
-        <v>722</v>
+        <v>703</v>
       </c>
       <c r="C134" t="s">
-        <v>723</v>
+        <v>704</v>
       </c>
       <c r="D134" t="s">
-        <v>724</v>
+        <v>705</v>
       </c>
       <c r="E134" t="s">
-        <v>725</v>
+        <v>706</v>
       </c>
       <c r="F134" t="s">
-        <v>726</v>
+        <v>707</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="10" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="B135" t="s">
-        <v>712</v>
+        <v>732</v>
       </c>
       <c r="C135" t="s">
-        <v>713</v>
+        <v>733</v>
       </c>
       <c r="D135" t="s">
-        <v>714</v>
+        <v>734</v>
       </c>
       <c r="E135" t="s">
-        <v>715</v>
+        <v>735</v>
       </c>
       <c r="F135" t="s">
-        <v>716</v>
+        <v>736</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="10" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="B136" t="s">
-        <v>717</v>
+        <v>697</v>
       </c>
       <c r="C136" t="s">
-        <v>718</v>
+        <v>698</v>
       </c>
       <c r="D136" t="s">
-        <v>719</v>
+        <v>699</v>
       </c>
       <c r="E136" t="s">
-        <v>720</v>
+        <v>700</v>
       </c>
       <c r="F136" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="14" t="s">
-        <v>634</v>
+        <v>701</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="10" t="s">
+        <v>747</v>
+      </c>
+      <c r="B137" t="s">
+        <v>727</v>
+      </c>
+      <c r="C137" t="s">
+        <v>728</v>
+      </c>
+      <c r="D137" t="s">
+        <v>729</v>
+      </c>
+      <c r="E137" t="s">
+        <v>730</v>
+      </c>
+      <c r="F137" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="B138" t="s">
+        <v>702</v>
+      </c>
+      <c r="C138" t="s">
+        <v>708</v>
+      </c>
+      <c r="D138" t="s">
+        <v>709</v>
+      </c>
+      <c r="E138" t="s">
+        <v>710</v>
+      </c>
+      <c r="F138" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="10" t="s">
-        <v>655</v>
+        <v>749</v>
       </c>
       <c r="B139" t="s">
-        <v>753</v>
+        <v>722</v>
       </c>
       <c r="C139" t="s">
-        <v>635</v>
+        <v>723</v>
       </c>
       <c r="D139" t="s">
-        <v>636</v>
+        <v>724</v>
       </c>
       <c r="E139" t="s">
-        <v>637</v>
+        <v>725</v>
       </c>
       <c r="F139" t="s">
-        <v>638</v>
+        <v>726</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="10" t="s">
-        <v>691</v>
+        <v>750</v>
       </c>
       <c r="B140" t="s">
-        <v>686</v>
+        <v>712</v>
       </c>
       <c r="C140" t="s">
-        <v>687</v>
+        <v>713</v>
       </c>
       <c r="D140" t="s">
-        <v>688</v>
+        <v>714</v>
       </c>
       <c r="E140" t="s">
-        <v>689</v>
+        <v>715</v>
       </c>
       <c r="F140" t="s">
-        <v>690</v>
+        <v>716</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="10" t="s">
-        <v>656</v>
+        <v>751</v>
       </c>
       <c r="B141" t="s">
-        <v>752</v>
+        <v>717</v>
       </c>
       <c r="C141" t="s">
-        <v>651</v>
+        <v>718</v>
       </c>
       <c r="D141" t="s">
-        <v>652</v>
+        <v>719</v>
       </c>
       <c r="E141" t="s">
-        <v>653</v>
+        <v>720</v>
       </c>
       <c r="F141" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="10" t="s">
-        <v>662</v>
-      </c>
-      <c r="B142" t="s">
-        <v>657</v>
-      </c>
-      <c r="C142" t="s">
-        <v>658</v>
-      </c>
-      <c r="D142" t="s">
-        <v>659</v>
-      </c>
-      <c r="E142" t="s">
-        <v>660</v>
-      </c>
-      <c r="F142" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="10" t="s">
-        <v>663</v>
-      </c>
-      <c r="B143" t="s">
-        <v>664</v>
-      </c>
-      <c r="C143" t="s">
-        <v>671</v>
-      </c>
-      <c r="D143" t="s">
-        <v>672</v>
-      </c>
-      <c r="E143" t="s">
-        <v>672</v>
-      </c>
-      <c r="F143" t="s">
-        <v>679</v>
+        <v>721</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="14" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="10" t="s">
-        <v>681</v>
+        <v>655</v>
       </c>
       <c r="B144" t="s">
-        <v>680</v>
+        <v>753</v>
       </c>
       <c r="C144" t="s">
-        <v>682</v>
+        <v>635</v>
       </c>
       <c r="D144" t="s">
-        <v>683</v>
+        <v>636</v>
       </c>
       <c r="E144" t="s">
-        <v>684</v>
+        <v>637</v>
       </c>
       <c r="F144" t="s">
-        <v>685</v>
+        <v>638</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="10" t="s">
-        <v>665</v>
+        <v>691</v>
       </c>
       <c r="B145" t="s">
-        <v>666</v>
+        <v>686</v>
       </c>
       <c r="C145" t="s">
-        <v>667</v>
+        <v>687</v>
       </c>
       <c r="D145" t="s">
-        <v>668</v>
+        <v>688</v>
       </c>
       <c r="E145" t="s">
-        <v>669</v>
+        <v>689</v>
       </c>
       <c r="F145" t="s">
-        <v>670</v>
+        <v>690</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="10" t="s">
+        <v>656</v>
+      </c>
+      <c r="B146" t="s">
+        <v>752</v>
+      </c>
+      <c r="C146" t="s">
+        <v>651</v>
+      </c>
+      <c r="D146" t="s">
+        <v>652</v>
+      </c>
+      <c r="E146" t="s">
+        <v>653</v>
+      </c>
+      <c r="F146" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="10" t="s">
+        <v>662</v>
+      </c>
+      <c r="B147" t="s">
+        <v>657</v>
+      </c>
+      <c r="C147" t="s">
+        <v>658</v>
+      </c>
+      <c r="D147" t="s">
+        <v>659</v>
+      </c>
+      <c r="E147" t="s">
+        <v>660</v>
+      </c>
+      <c r="F147" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="10" t="s">
+        <v>663</v>
+      </c>
+      <c r="B148" t="s">
+        <v>664</v>
+      </c>
+      <c r="C148" t="s">
+        <v>671</v>
+      </c>
+      <c r="D148" t="s">
+        <v>672</v>
+      </c>
+      <c r="E148" t="s">
+        <v>672</v>
+      </c>
+      <c r="F148" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="B149" t="s">
+        <v>680</v>
+      </c>
+      <c r="C149" t="s">
+        <v>682</v>
+      </c>
+      <c r="D149" t="s">
+        <v>683</v>
+      </c>
+      <c r="E149" t="s">
+        <v>684</v>
+      </c>
+      <c r="F149" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="10" t="s">
+        <v>665</v>
+      </c>
+      <c r="B150" t="s">
+        <v>666</v>
+      </c>
+      <c r="C150" t="s">
+        <v>667</v>
+      </c>
+      <c r="D150" t="s">
+        <v>668</v>
+      </c>
+      <c r="E150" t="s">
+        <v>669</v>
+      </c>
+      <c r="F150" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="10" t="s">
         <v>674</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B151" t="s">
         <v>673</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C151" t="s">
         <v>675</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D151" t="s">
         <v>676</v>
       </c>
-      <c r="E146" t="s">
+      <c r="E151" t="s">
         <v>677</v>
       </c>
-      <c r="F146" t="s">
+      <c r="F151" t="s">
         <v>678</v>
       </c>
     </row>

--- a/sd-hub-translations.xlsx
+++ b/sd-hub-translations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\A1111\extensions\sd-hub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A1111\extensions\sd-hub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC3B11F-070F-473D-B469-BD15F80D8647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FA1711-06A7-43FC-A8CB-6088C1416861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{3ED67704-AF6D-45B2-B79F-70598EE793EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{3ED67704-AF6D-45B2-B79F-70598EE793EA}"/>
   </bookViews>
   <sheets>
     <sheet name="sd-hub-translations3" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="867">
   <si>
     <t>Key</t>
   </si>
@@ -1924,9 +1924,6 @@
     <t>전체 너비</t>
   </si>
   <si>
-    <t>// gallery multi selection</t>
-  </si>
-  <si>
     <t>タブを切り替えると、{{number}} 件の選択された画像がすべてクリアされます。&lt;br&gt;続行しますか？</t>
   </si>
   <si>
@@ -1939,12 +1936,6 @@
     <t>탭을 전환하면 선택된 {{number}}개의 이미지가 모두 삭제됩니다.&lt;br&gt;계속하시겠습니까?</t>
   </si>
   <si>
-    <t>Select Image</t>
-  </si>
-  <si>
-    <t>Unselect Image</t>
-  </si>
-  <si>
     <t>select_image</t>
   </si>
   <si>
@@ -2287,9 +2278,6 @@
     <t>clear_image</t>
   </si>
   <si>
-    <t>Clear Image</t>
-  </si>
-  <si>
     <t>画像をクリア</t>
   </si>
   <si>
@@ -2354,6 +2342,285 @@
   </si>
   <si>
     <t>소스</t>
+  </si>
+  <si>
+    <t>select_all_images</t>
+  </si>
+  <si>
+    <t>unselect_all_images</t>
+  </si>
+  <si>
+    <t>Select all images</t>
+  </si>
+  <si>
+    <t>Unselect all images</t>
+  </si>
+  <si>
+    <t>Batch download images</t>
+  </si>
+  <si>
+    <t>Batch delete images</t>
+  </si>
+  <si>
+    <t>batch_delete_images</t>
+  </si>
+  <si>
+    <t>batch_download_images</t>
+  </si>
+  <si>
+    <t>画像を一括ダウンロード</t>
+  </si>
+  <si>
+    <t>批量下载图片</t>
+  </si>
+  <si>
+    <t>批次下載圖片</t>
+  </si>
+  <si>
+    <t>이미지 일괄 다운로드</t>
+  </si>
+  <si>
+    <t>画像を一括削除</t>
+  </si>
+  <si>
+    <t>批量删除图片</t>
+  </si>
+  <si>
+    <t>批次刪除圖片</t>
+  </si>
+  <si>
+    <t>이미지 일괄 삭제</t>
+  </si>
+  <si>
+    <t>すべての画像を選択</t>
+  </si>
+  <si>
+    <t>全选图片</t>
+  </si>
+  <si>
+    <t>全選圖片</t>
+  </si>
+  <si>
+    <t>모든 이미지 선택</t>
+  </si>
+  <si>
+    <t>すべての選択を解除</t>
+  </si>
+  <si>
+    <t>取消全选</t>
+  </si>
+  <si>
+    <t>取消全選</t>
+  </si>
+  <si>
+    <t>전체 선택 해제</t>
+  </si>
+  <si>
+    <t>unselect_this_image</t>
+  </si>
+  <si>
+    <t>select_this_image</t>
+  </si>
+  <si>
+    <t>Select this image</t>
+  </si>
+  <si>
+    <t>Select image</t>
+  </si>
+  <si>
+    <t>Unselect image</t>
+  </si>
+  <si>
+    <t>Unselect this image</t>
+  </si>
+  <si>
+    <t>Clear image</t>
+  </si>
+  <si>
+    <t>fav_this_image</t>
+  </si>
+  <si>
+    <t>unfav_this_image</t>
+  </si>
+  <si>
+    <t>Favorite this image</t>
+  </si>
+  <si>
+    <t>Unfavorite this image</t>
+  </si>
+  <si>
+    <t>この画像を選択</t>
+  </si>
+  <si>
+    <t>选择此图片</t>
+  </si>
+  <si>
+    <t>選擇此圖片</t>
+  </si>
+  <si>
+    <t>이 이미지 선택</t>
+  </si>
+  <si>
+    <t>この画像の選択を解除</t>
+  </si>
+  <si>
+    <t>取消选择此图片</t>
+  </si>
+  <si>
+    <t>取消選擇此圖片</t>
+  </si>
+  <si>
+    <t>이 이미지 선택 해제</t>
+  </si>
+  <si>
+    <t>この画像をお気に入りに追加</t>
+  </si>
+  <si>
+    <t>收藏此图片</t>
+  </si>
+  <si>
+    <t>加入收藏此圖片</t>
+  </si>
+  <si>
+    <t>이 이미지를 즐겨찾기에 추가</t>
+  </si>
+  <si>
+    <t>この画像をお気に入りから削除</t>
+  </si>
+  <si>
+    <t>取消收藏此图片</t>
+  </si>
+  <si>
+    <t>從收藏中移除此圖片</t>
+  </si>
+  <si>
+    <t>이 이미지를 즐겨찾기에서 제거</t>
+  </si>
+  <si>
+    <t>// gallery batch box</t>
+  </si>
+  <si>
+    <t>Hide controllers</t>
+  </si>
+  <si>
+    <t>Zoom out</t>
+  </si>
+  <si>
+    <t>Zoom level</t>
+  </si>
+  <si>
+    <t>Zoom in</t>
+  </si>
+  <si>
+    <t>Fit image to screen</t>
+  </si>
+  <si>
+    <t>Zoom percentage list</t>
+  </si>
+  <si>
+    <t>コントローラーを非表示</t>
+  </si>
+  <si>
+    <t>// image viewer controllers</t>
+  </si>
+  <si>
+    <t>隐藏控制栏</t>
+  </si>
+  <si>
+    <t>隱藏控制列</t>
+  </si>
+  <si>
+    <t>컨트롤러 숨기기</t>
+  </si>
+  <si>
+    <t>画面に合わせる</t>
+  </si>
+  <si>
+    <t>适合屏幕</t>
+  </si>
+  <si>
+    <t>適合螢幕</t>
+  </si>
+  <si>
+    <t>화면에 맞춤</t>
+  </si>
+  <si>
+    <t>ズーム倍率一覧</t>
+  </si>
+  <si>
+    <t>缩放比例列表</t>
+  </si>
+  <si>
+    <t>縮放比例清單</t>
+  </si>
+  <si>
+    <t>확대 비율 목록</t>
+  </si>
+  <si>
+    <t>縮小</t>
+  </si>
+  <si>
+    <t>缩小</t>
+  </si>
+  <si>
+    <t>축소</t>
+  </si>
+  <si>
+    <t>ズーム倍率</t>
+  </si>
+  <si>
+    <t>缩放级别</t>
+  </si>
+  <si>
+    <t>縮放等級</t>
+  </si>
+  <si>
+    <t>확대 수준</t>
+  </si>
+  <si>
+    <t>拡大</t>
+  </si>
+  <si>
+    <t>放大</t>
+  </si>
+  <si>
+    <t>확대</t>
+  </si>
+  <si>
+    <t>Display controllers</t>
+  </si>
+  <si>
+    <t>dis_cont</t>
+  </si>
+  <si>
+    <t>hid_cont</t>
+  </si>
+  <si>
+    <t>fit_img</t>
+  </si>
+  <si>
+    <t>コントローラーを表示</t>
+  </si>
+  <si>
+    <t>显示控制栏</t>
+  </si>
+  <si>
+    <t>顯示控制列</t>
+  </si>
+  <si>
+    <t>컨트롤러 표시</t>
+  </si>
+  <si>
+    <t>zlist</t>
+  </si>
+  <si>
+    <t>zout</t>
+  </si>
+  <si>
+    <t>zlev</t>
+  </si>
+  <si>
+    <t>zin</t>
   </si>
 </sst>
 </file>
@@ -2695,13 +2962,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2895,20 +3162,20 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -3265,10 +3532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780E0960-BCEF-42B8-BB82-3303C65E8F3F}">
-  <dimension ref="A1:F151"/>
+  <dimension ref="A1:F179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="C100" sqref="C100"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="B174" sqref="B174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3279,7 +3546,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
@@ -3298,15 +3565,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="15"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -3428,2605 +3695,2973 @@
         <v>182</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>122</v>
-      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="C15" t="s">
-        <v>465</v>
-      </c>
-      <c r="D15" t="s">
-        <v>467</v>
-      </c>
-      <c r="E15" t="s">
-        <v>469</v>
-      </c>
-      <c r="F15" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>438</v>
+        <v>110</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="C16" t="s">
-        <v>466</v>
-      </c>
-      <c r="D16" t="s">
-        <v>468</v>
-      </c>
-      <c r="E16" t="s">
-        <v>470</v>
-      </c>
-      <c r="F16" t="s">
-        <v>472</v>
+        <v>111</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C17" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
       <c r="D17" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="E17" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="F17" t="s">
-        <v>452</v>
+        <v>471</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C18" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="D18" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="E18" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="F18" t="s">
-        <v>453</v>
+        <v>472</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C19" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="D19" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="E19" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="F19" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C20" t="s">
+        <v>456</v>
+      </c>
+      <c r="D20" t="s">
+        <v>455</v>
+      </c>
+      <c r="E20" t="s">
+        <v>454</v>
+      </c>
+      <c r="F20" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C21" t="s">
+        <v>457</v>
+      </c>
+      <c r="D21" t="s">
+        <v>459</v>
+      </c>
+      <c r="E21" t="s">
+        <v>461</v>
+      </c>
+      <c r="F21" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C22" t="s">
         <v>458</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D22" t="s">
         <v>460</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E22" t="s">
         <v>462</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F22" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
         <v>310</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B25" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E25" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F25" s="5" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B26" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D26" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E26" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F26" s="5" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B27" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C27" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D27" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E27" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F27" s="5" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>480</v>
-      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E36" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B39" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C39" t="s">
         <v>192</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D39" t="s">
         <v>193</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E39" t="s">
         <v>194</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F39" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E40" t="s">
         <v>338</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F40" t="s">
         <v>339</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>31</v>
+        <v>203</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>34</v>
+        <v>204</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>33</v>
+        <v>205</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>34</v>
+        <v>206</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
-        <v>232</v>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>250</v>
+        <v>225</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>253</v>
+        <v>34</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>254</v>
+        <v>33</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>255</v>
+        <v>34</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>256</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>423</v>
+      <c r="A47" s="11"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+    </row>
+    <row r="48" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="17" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>282</v>
+        <v>163</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>283</v>
+        <v>164</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>284</v>
+        <v>424</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>285</v>
+        <v>425</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>286</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>288</v>
+        <v>418</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>289</v>
+        <v>420</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>290</v>
+        <v>421</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>291</v>
+        <v>422</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>292</v>
+        <v>423</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>294</v>
+        <v>258</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>419</v>
+        <v>259</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>426</v>
+        <v>260</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>427</v>
+        <v>261</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>427</v>
+        <v>261</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>428</v>
+        <v>262</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B62" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C62" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D62" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E62" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="F62" s="5" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="57" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C58" t="s">
-        <v>313</v>
-      </c>
-      <c r="D58" t="s">
-        <v>314</v>
-      </c>
-      <c r="E58" t="s">
-        <v>315</v>
-      </c>
-      <c r="F58" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="B59" t="s">
-        <v>318</v>
-      </c>
-      <c r="C59" t="s">
-        <v>319</v>
-      </c>
-      <c r="D59" t="s">
-        <v>320</v>
-      </c>
-      <c r="E59" t="s">
-        <v>321</v>
-      </c>
-      <c r="F59" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="14" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>324</v>
-      </c>
-      <c r="C61" t="s">
-        <v>328</v>
-      </c>
-      <c r="D61" t="s">
-        <v>325</v>
-      </c>
-      <c r="E61" t="s">
-        <v>326</v>
-      </c>
-      <c r="F61" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="B62" t="s">
-        <v>330</v>
-      </c>
-      <c r="C62" t="s">
-        <v>331</v>
-      </c>
-      <c r="D62" t="s">
-        <v>332</v>
-      </c>
-      <c r="E62" t="s">
-        <v>333</v>
-      </c>
-      <c r="F62" t="s">
-        <v>334</v>
-      </c>
-    </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="B63" s="19" t="s">
-        <v>432</v>
-      </c>
-      <c r="C63" t="s">
-        <v>433</v>
-      </c>
-      <c r="D63" t="s">
-        <v>434</v>
-      </c>
-      <c r="E63" t="s">
-        <v>435</v>
-      </c>
-      <c r="F63" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="16"/>
-    </row>
+      <c r="A63" s="11"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+    </row>
+    <row r="64" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>6</v>
+        <v>311</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>11</v>
+        <v>312</v>
+      </c>
+      <c r="C65" t="s">
+        <v>313</v>
+      </c>
+      <c r="D65" t="s">
+        <v>314</v>
+      </c>
+      <c r="E65" t="s">
+        <v>315</v>
+      </c>
+      <c r="F65" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>29</v>
+      <c r="A66" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="B66" t="s">
+        <v>318</v>
+      </c>
+      <c r="C66" t="s">
+        <v>319</v>
+      </c>
+      <c r="D66" t="s">
+        <v>320</v>
+      </c>
+      <c r="E66" t="s">
+        <v>321</v>
+      </c>
+      <c r="F66" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="17" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>35</v>
+      <c r="A69" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="C69" t="s">
+        <v>328</v>
+      </c>
+      <c r="D69" t="s">
+        <v>325</v>
+      </c>
+      <c r="E69" t="s">
+        <v>326</v>
+      </c>
+      <c r="F69" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>37</v>
+      <c r="A70" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="B70" t="s">
+        <v>330</v>
+      </c>
+      <c r="C70" t="s">
+        <v>331</v>
+      </c>
+      <c r="D70" t="s">
+        <v>332</v>
+      </c>
+      <c r="E70" t="s">
+        <v>333</v>
+      </c>
+      <c r="F70" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>40</v>
+      <c r="A71" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="C71" t="s">
+        <v>433</v>
+      </c>
+      <c r="D71" t="s">
+        <v>434</v>
+      </c>
+      <c r="E71" t="s">
+        <v>435</v>
+      </c>
+      <c r="F71" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="B72" s="15"/>
+    </row>
+    <row r="73" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="B73" s="18"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>412</v>
+        <v>24</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="C77" t="s">
-        <v>414</v>
-      </c>
-      <c r="D77" t="s">
-        <v>415</v>
-      </c>
-      <c r="E77" t="s">
-        <v>416</v>
-      </c>
-      <c r="F77" t="s">
-        <v>417</v>
+        <v>25</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>641</v>
+        <v>41</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>639</v>
+        <v>343</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>646</v>
+        <v>42</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>647</v>
+        <v>43</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>649</v>
+        <v>44</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>643</v>
+        <v>45</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>642</v>
+        <v>46</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>640</v>
+        <v>46</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>645</v>
+        <v>47</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>648</v>
+        <v>48</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>650</v>
+        <v>49</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>644</v>
+        <v>50</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>754</v>
+        <v>51</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>755</v>
+        <v>51</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>756</v>
+        <v>47</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>757</v>
+        <v>48</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>758</v>
+        <v>49</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>759</v>
+        <v>50</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="7"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
+      <c r="A84" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C86" t="s">
+        <v>414</v>
+      </c>
+      <c r="D86" t="s">
+        <v>415</v>
+      </c>
+      <c r="E86" t="s">
+        <v>416</v>
+      </c>
+      <c r="F86" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
+        <v>799</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
+        <v>798</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
+        <v>751</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="7"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="7" t="s">
+        <v>806</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="7"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B100" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C100" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D100" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="E100" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F86" s="1" t="s">
+      <c r="F100" s="1" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="F88" s="5" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="B89" s="19" t="s">
-        <v>349</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="B93" t="s">
-        <v>357</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="B94" s="19" t="s">
-        <v>358</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="F94" s="5" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="B95" t="s">
-        <v>363</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="F95" s="5" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="B96" t="s">
-        <v>360</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="F96" s="5" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="B97" t="s">
-        <v>365</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="F97" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="10" t="s">
-        <v>367</v>
-      </c>
-      <c r="B98" t="s">
-        <v>366</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="F98" s="5" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="10" t="s">
-        <v>761</v>
-      </c>
-      <c r="B100" t="s">
-        <v>760</v>
-      </c>
-      <c r="C100" t="s">
-        <v>764</v>
-      </c>
-      <c r="D100" t="s">
-        <v>765</v>
-      </c>
-      <c r="E100" t="s">
-        <v>766</v>
-      </c>
-      <c r="F100" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="10" t="s">
-        <v>763</v>
-      </c>
-      <c r="B101" t="s">
-        <v>762</v>
-      </c>
-      <c r="C101" t="s">
-        <v>768</v>
-      </c>
-      <c r="D101" t="s">
-        <v>769</v>
-      </c>
-      <c r="E101" t="s">
-        <v>770</v>
-      </c>
-      <c r="F101" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
-        <v>774</v>
-      </c>
-      <c r="B102" t="s">
-        <v>773</v>
-      </c>
-      <c r="C102" t="s">
-        <v>772</v>
-      </c>
-      <c r="D102" t="s">
-        <v>775</v>
-      </c>
-      <c r="E102" t="s">
-        <v>776</v>
-      </c>
-      <c r="F102" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="14" t="s">
-        <v>522</v>
+        <v>346</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="B103" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
-        <v>481</v>
-      </c>
-      <c r="B104" t="s">
-        <v>482</v>
-      </c>
-      <c r="C104" t="s">
-        <v>483</v>
-      </c>
-      <c r="D104" t="s">
-        <v>484</v>
-      </c>
-      <c r="E104" t="s">
-        <v>483</v>
-      </c>
-      <c r="F104" t="s">
-        <v>485</v>
+        <v>347</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="11" t="s">
-        <v>486</v>
-      </c>
-      <c r="B105" t="s">
-        <v>558</v>
-      </c>
-      <c r="C105" t="s">
-        <v>487</v>
-      </c>
-      <c r="D105" t="s">
-        <v>488</v>
-      </c>
-      <c r="E105" t="s">
-        <v>489</v>
-      </c>
-      <c r="F105" t="s">
-        <v>490</v>
+      <c r="A105" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="11" t="s">
-        <v>491</v>
-      </c>
-      <c r="B106" t="s">
-        <v>559</v>
-      </c>
-      <c r="C106" t="s">
-        <v>492</v>
-      </c>
-      <c r="D106" t="s">
-        <v>523</v>
-      </c>
-      <c r="E106" t="s">
-        <v>534</v>
-      </c>
-      <c r="F106" t="s">
-        <v>544</v>
+      <c r="A106" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="11" t="s">
-        <v>493</v>
+      <c r="A107" s="10" t="s">
+        <v>356</v>
       </c>
       <c r="B107" t="s">
-        <v>560</v>
-      </c>
-      <c r="C107" t="s">
-        <v>494</v>
-      </c>
-      <c r="D107" t="s">
-        <v>524</v>
-      </c>
-      <c r="E107" t="s">
-        <v>535</v>
-      </c>
-      <c r="F107" t="s">
-        <v>545</v>
+        <v>357</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="B108" t="s">
-        <v>496</v>
-      </c>
-      <c r="C108" t="s">
-        <v>497</v>
-      </c>
-      <c r="D108" t="s">
-        <v>497</v>
-      </c>
-      <c r="E108" t="s">
-        <v>497</v>
-      </c>
-      <c r="F108" t="s">
-        <v>546</v>
+      <c r="A108" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="B108" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="11" t="s">
-        <v>499</v>
+      <c r="A109" s="10" t="s">
+        <v>362</v>
       </c>
       <c r="B109" t="s">
-        <v>561</v>
-      </c>
-      <c r="C109" t="s">
-        <v>498</v>
-      </c>
-      <c r="D109" t="s">
-        <v>525</v>
-      </c>
-      <c r="E109" t="s">
-        <v>536</v>
-      </c>
-      <c r="F109" t="s">
-        <v>547</v>
+        <v>363</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="11" t="s">
-        <v>500</v>
+      <c r="A110" s="10" t="s">
+        <v>361</v>
       </c>
       <c r="B110" t="s">
-        <v>504</v>
-      </c>
-      <c r="C110" t="s">
-        <v>502</v>
-      </c>
-      <c r="D110" t="s">
-        <v>526</v>
-      </c>
-      <c r="E110" t="s">
-        <v>537</v>
-      </c>
-      <c r="F110" t="s">
-        <v>548</v>
+        <v>360</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="11" t="s">
-        <v>501</v>
+      <c r="A111" s="10" t="s">
+        <v>364</v>
       </c>
       <c r="B111" t="s">
-        <v>505</v>
-      </c>
-      <c r="C111" t="s">
-        <v>503</v>
-      </c>
-      <c r="D111" t="s">
-        <v>527</v>
-      </c>
-      <c r="E111" t="s">
-        <v>538</v>
-      </c>
-      <c r="F111" t="s">
-        <v>549</v>
+        <v>365</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="11" t="s">
-        <v>506</v>
+      <c r="A112" s="10" t="s">
+        <v>367</v>
       </c>
       <c r="B112" t="s">
-        <v>562</v>
-      </c>
-      <c r="C112" t="s">
-        <v>507</v>
-      </c>
-      <c r="D112" t="s">
-        <v>528</v>
-      </c>
-      <c r="E112" t="s">
-        <v>539</v>
-      </c>
-      <c r="F112" t="s">
-        <v>550</v>
+        <v>366</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="11" t="s">
-        <v>508</v>
-      </c>
-      <c r="B113" t="s">
-        <v>509</v>
-      </c>
-      <c r="C113" t="s">
-        <v>512</v>
-      </c>
-      <c r="D113" t="s">
-        <v>529</v>
-      </c>
-      <c r="E113" t="s">
-        <v>529</v>
-      </c>
-      <c r="F113" t="s">
-        <v>551</v>
-      </c>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="11" t="s">
-        <v>510</v>
+      <c r="A114" s="10" t="s">
+        <v>757</v>
       </c>
       <c r="B114" t="s">
-        <v>511</v>
+        <v>756</v>
       </c>
       <c r="C114" t="s">
-        <v>513</v>
+        <v>760</v>
       </c>
       <c r="D114" t="s">
-        <v>530</v>
+        <v>761</v>
       </c>
       <c r="E114" t="s">
-        <v>540</v>
+        <v>762</v>
       </c>
       <c r="F114" t="s">
-        <v>552</v>
+        <v>763</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="11" t="s">
-        <v>514</v>
+      <c r="A115" s="10" t="s">
+        <v>759</v>
       </c>
       <c r="B115" t="s">
-        <v>563</v>
+        <v>758</v>
       </c>
       <c r="C115" t="s">
-        <v>515</v>
+        <v>764</v>
       </c>
       <c r="D115" t="s">
-        <v>531</v>
+        <v>765</v>
       </c>
       <c r="E115" t="s">
-        <v>541</v>
+        <v>766</v>
       </c>
       <c r="F115" t="s">
-        <v>553</v>
+        <v>767</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="11" t="s">
-        <v>556</v>
+      <c r="A116" s="10" t="s">
+        <v>770</v>
       </c>
       <c r="B116" t="s">
-        <v>566</v>
+        <v>769</v>
       </c>
       <c r="C116" t="s">
-        <v>568</v>
+        <v>768</v>
       </c>
       <c r="D116" t="s">
-        <v>570</v>
+        <v>771</v>
       </c>
       <c r="E116" t="s">
-        <v>572</v>
+        <v>772</v>
       </c>
       <c r="F116" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="11" t="s">
-        <v>557</v>
-      </c>
-      <c r="B117" t="s">
-        <v>567</v>
-      </c>
-      <c r="C117" t="s">
-        <v>569</v>
-      </c>
-      <c r="D117" t="s">
-        <v>571</v>
-      </c>
-      <c r="E117" t="s">
-        <v>573</v>
-      </c>
-      <c r="F117" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="10" t="s">
-        <v>516</v>
-      </c>
-      <c r="B118" t="s">
-        <v>564</v>
-      </c>
-      <c r="C118" t="s">
-        <v>576</v>
-      </c>
-      <c r="D118" t="s">
-        <v>577</v>
-      </c>
-      <c r="E118" t="s">
-        <v>578</v>
-      </c>
-      <c r="F118" t="s">
-        <v>579</v>
+        <v>773</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="17" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
-        <v>628</v>
+        <v>481</v>
       </c>
       <c r="B119" t="s">
-        <v>629</v>
+        <v>482</v>
       </c>
       <c r="C119" t="s">
-        <v>630</v>
+        <v>483</v>
       </c>
       <c r="D119" t="s">
-        <v>631</v>
+        <v>484</v>
       </c>
       <c r="E119" t="s">
-        <v>632</v>
+        <v>483</v>
       </c>
       <c r="F119" t="s">
-        <v>633</v>
+        <v>485</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="10" t="s">
-        <v>517</v>
+      <c r="A120" s="11" t="s">
+        <v>486</v>
       </c>
       <c r="B120" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="C120" t="s">
-        <v>518</v>
+        <v>487</v>
       </c>
       <c r="D120" t="s">
-        <v>532</v>
+        <v>488</v>
       </c>
       <c r="E120" t="s">
-        <v>542</v>
+        <v>489</v>
       </c>
       <c r="F120" t="s">
-        <v>554</v>
+        <v>490</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="10" t="s">
-        <v>519</v>
+      <c r="A121" s="11" t="s">
+        <v>491</v>
       </c>
       <c r="B121" t="s">
-        <v>520</v>
+        <v>559</v>
       </c>
       <c r="C121" t="s">
-        <v>521</v>
+        <v>492</v>
       </c>
       <c r="D121" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="E121" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="F121" t="s">
-        <v>555</v>
+        <v>544</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="B122" t="s">
+        <v>560</v>
+      </c>
+      <c r="C122" t="s">
+        <v>494</v>
+      </c>
+      <c r="D122" t="s">
+        <v>524</v>
+      </c>
+      <c r="E122" t="s">
+        <v>535</v>
+      </c>
+      <c r="F122" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="10" t="s">
-        <v>585</v>
+      <c r="A123" s="11" t="s">
+        <v>495</v>
       </c>
       <c r="B123" t="s">
-        <v>584</v>
+        <v>496</v>
       </c>
       <c r="C123" t="s">
-        <v>580</v>
+        <v>497</v>
       </c>
       <c r="D123" t="s">
-        <v>581</v>
+        <v>497</v>
       </c>
       <c r="E123" t="s">
-        <v>582</v>
+        <v>497</v>
       </c>
       <c r="F123" t="s">
-        <v>583</v>
+        <v>546</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="10" t="s">
-        <v>586</v>
+      <c r="A124" s="11" t="s">
+        <v>499</v>
       </c>
       <c r="B124" t="s">
-        <v>587</v>
+        <v>561</v>
       </c>
       <c r="C124" t="s">
-        <v>588</v>
+        <v>498</v>
       </c>
       <c r="D124" t="s">
-        <v>589</v>
+        <v>525</v>
       </c>
       <c r="E124" t="s">
-        <v>590</v>
+        <v>536</v>
       </c>
       <c r="F124" t="s">
-        <v>591</v>
+        <v>547</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="10" t="s">
-        <v>592</v>
+      <c r="A125" s="11" t="s">
+        <v>500</v>
       </c>
       <c r="B125" t="s">
-        <v>593</v>
+        <v>504</v>
       </c>
       <c r="C125" t="s">
-        <v>594</v>
+        <v>502</v>
       </c>
       <c r="D125" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="E125" t="s">
-        <v>596</v>
+        <v>537</v>
       </c>
       <c r="F125" t="s">
-        <v>597</v>
+        <v>548</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="10" t="s">
-        <v>599</v>
+      <c r="A126" s="11" t="s">
+        <v>501</v>
       </c>
       <c r="B126" t="s">
-        <v>598</v>
+        <v>505</v>
       </c>
       <c r="C126" t="s">
-        <v>600</v>
+        <v>503</v>
       </c>
       <c r="D126" t="s">
-        <v>601</v>
+        <v>527</v>
       </c>
       <c r="E126" t="s">
-        <v>602</v>
+        <v>538</v>
       </c>
       <c r="F126" t="s">
-        <v>603</v>
+        <v>549</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="10" t="s">
-        <v>605</v>
+      <c r="A127" s="11" t="s">
+        <v>506</v>
       </c>
       <c r="B127" t="s">
-        <v>604</v>
+        <v>562</v>
       </c>
       <c r="C127" t="s">
-        <v>606</v>
+        <v>507</v>
       </c>
       <c r="D127" t="s">
-        <v>607</v>
+        <v>528</v>
       </c>
       <c r="E127" t="s">
-        <v>608</v>
+        <v>539</v>
       </c>
       <c r="F127" t="s">
-        <v>609</v>
+        <v>550</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="10" t="s">
-        <v>610</v>
+      <c r="A128" s="11" t="s">
+        <v>508</v>
       </c>
       <c r="B128" t="s">
-        <v>613</v>
+        <v>509</v>
       </c>
       <c r="C128" t="s">
-        <v>614</v>
+        <v>512</v>
       </c>
       <c r="D128" t="s">
-        <v>615</v>
+        <v>529</v>
       </c>
       <c r="E128" t="s">
-        <v>616</v>
+        <v>529</v>
       </c>
       <c r="F128" t="s">
-        <v>617</v>
+        <v>551</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="10" t="s">
-        <v>611</v>
+      <c r="A129" s="11" t="s">
+        <v>510</v>
       </c>
       <c r="B129" t="s">
-        <v>618</v>
+        <v>511</v>
       </c>
       <c r="C129" t="s">
-        <v>619</v>
+        <v>513</v>
       </c>
       <c r="D129" t="s">
-        <v>620</v>
+        <v>530</v>
       </c>
       <c r="E129" t="s">
-        <v>621</v>
+        <v>540</v>
       </c>
       <c r="F129" t="s">
-        <v>622</v>
+        <v>552</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="10" t="s">
-        <v>612</v>
+      <c r="A130" s="11" t="s">
+        <v>514</v>
       </c>
       <c r="B130" t="s">
-        <v>623</v>
+        <v>563</v>
       </c>
       <c r="C130" t="s">
-        <v>624</v>
+        <v>515</v>
       </c>
       <c r="D130" t="s">
-        <v>625</v>
+        <v>531</v>
       </c>
       <c r="E130" t="s">
-        <v>626</v>
+        <v>541</v>
       </c>
       <c r="F130" t="s">
-        <v>627</v>
+        <v>553</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="B131" t="s">
+        <v>566</v>
+      </c>
+      <c r="C131" t="s">
+        <v>568</v>
+      </c>
+      <c r="D131" t="s">
+        <v>570</v>
+      </c>
+      <c r="E131" t="s">
+        <v>572</v>
+      </c>
+      <c r="F131" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="10" t="s">
-        <v>742</v>
+      <c r="A132" s="11" t="s">
+        <v>557</v>
       </c>
       <c r="B132" t="s">
-        <v>692</v>
+        <v>567</v>
       </c>
       <c r="C132" t="s">
-        <v>693</v>
+        <v>569</v>
       </c>
       <c r="D132" t="s">
-        <v>694</v>
+        <v>571</v>
       </c>
       <c r="E132" t="s">
-        <v>695</v>
+        <v>573</v>
       </c>
       <c r="F132" t="s">
-        <v>696</v>
+        <v>575</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="10" t="s">
-        <v>743</v>
+        <v>516</v>
       </c>
       <c r="B133" t="s">
-        <v>737</v>
+        <v>564</v>
       </c>
       <c r="C133" t="s">
-        <v>738</v>
+        <v>576</v>
       </c>
       <c r="D133" t="s">
-        <v>739</v>
+        <v>577</v>
       </c>
       <c r="E133" t="s">
-        <v>740</v>
+        <v>578</v>
       </c>
       <c r="F133" t="s">
-        <v>741</v>
+        <v>579</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="10" t="s">
-        <v>744</v>
+        <v>628</v>
       </c>
       <c r="B134" t="s">
-        <v>703</v>
+        <v>629</v>
       </c>
       <c r="C134" t="s">
-        <v>704</v>
+        <v>630</v>
       </c>
       <c r="D134" t="s">
-        <v>705</v>
+        <v>631</v>
       </c>
       <c r="E134" t="s">
-        <v>706</v>
+        <v>632</v>
       </c>
       <c r="F134" t="s">
-        <v>707</v>
+        <v>633</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="10" t="s">
-        <v>745</v>
+        <v>517</v>
       </c>
       <c r="B135" t="s">
-        <v>732</v>
+        <v>565</v>
       </c>
       <c r="C135" t="s">
-        <v>733</v>
+        <v>518</v>
       </c>
       <c r="D135" t="s">
-        <v>734</v>
+        <v>532</v>
       </c>
       <c r="E135" t="s">
-        <v>735</v>
+        <v>542</v>
       </c>
       <c r="F135" t="s">
-        <v>736</v>
+        <v>554</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="10" t="s">
-        <v>746</v>
+        <v>519</v>
       </c>
       <c r="B136" t="s">
-        <v>697</v>
+        <v>520</v>
       </c>
       <c r="C136" t="s">
-        <v>698</v>
+        <v>521</v>
       </c>
       <c r="D136" t="s">
-        <v>699</v>
+        <v>533</v>
       </c>
       <c r="E136" t="s">
-        <v>700</v>
+        <v>543</v>
       </c>
       <c r="F136" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="10" t="s">
-        <v>747</v>
-      </c>
-      <c r="B137" t="s">
-        <v>727</v>
-      </c>
-      <c r="C137" t="s">
-        <v>728</v>
-      </c>
-      <c r="D137" t="s">
-        <v>729</v>
-      </c>
-      <c r="E137" t="s">
-        <v>730</v>
-      </c>
-      <c r="F137" t="s">
-        <v>731</v>
+        <v>555</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="10" t="s">
-        <v>748</v>
+        <v>585</v>
       </c>
       <c r="B138" t="s">
-        <v>702</v>
+        <v>584</v>
       </c>
       <c r="C138" t="s">
-        <v>708</v>
+        <v>580</v>
       </c>
       <c r="D138" t="s">
-        <v>709</v>
+        <v>581</v>
       </c>
       <c r="E138" t="s">
-        <v>710</v>
+        <v>582</v>
       </c>
       <c r="F138" t="s">
-        <v>711</v>
+        <v>583</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="10" t="s">
-        <v>749</v>
+        <v>586</v>
       </c>
       <c r="B139" t="s">
-        <v>722</v>
+        <v>587</v>
       </c>
       <c r="C139" t="s">
-        <v>723</v>
+        <v>588</v>
       </c>
       <c r="D139" t="s">
-        <v>724</v>
+        <v>589</v>
       </c>
       <c r="E139" t="s">
-        <v>725</v>
+        <v>590</v>
       </c>
       <c r="F139" t="s">
-        <v>726</v>
+        <v>591</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="10" t="s">
-        <v>750</v>
+        <v>592</v>
       </c>
       <c r="B140" t="s">
-        <v>712</v>
+        <v>593</v>
       </c>
       <c r="C140" t="s">
-        <v>713</v>
+        <v>594</v>
       </c>
       <c r="D140" t="s">
-        <v>714</v>
+        <v>595</v>
       </c>
       <c r="E140" t="s">
-        <v>715</v>
+        <v>596</v>
       </c>
       <c r="F140" t="s">
-        <v>716</v>
+        <v>597</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="10" t="s">
-        <v>751</v>
+        <v>599</v>
       </c>
       <c r="B141" t="s">
-        <v>717</v>
+        <v>598</v>
       </c>
       <c r="C141" t="s">
-        <v>718</v>
+        <v>600</v>
       </c>
       <c r="D141" t="s">
-        <v>719</v>
+        <v>601</v>
       </c>
       <c r="E141" t="s">
-        <v>720</v>
+        <v>602</v>
       </c>
       <c r="F141" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="14" t="s">
-        <v>634</v>
+        <v>603</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="B142" t="s">
+        <v>604</v>
+      </c>
+      <c r="C142" t="s">
+        <v>606</v>
+      </c>
+      <c r="D142" t="s">
+        <v>607</v>
+      </c>
+      <c r="E142" t="s">
+        <v>608</v>
+      </c>
+      <c r="F142" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="10" t="s">
+        <v>610</v>
+      </c>
+      <c r="B143" t="s">
+        <v>613</v>
+      </c>
+      <c r="C143" t="s">
+        <v>614</v>
+      </c>
+      <c r="D143" t="s">
+        <v>615</v>
+      </c>
+      <c r="E143" t="s">
+        <v>616</v>
+      </c>
+      <c r="F143" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="10" t="s">
-        <v>655</v>
+        <v>611</v>
       </c>
       <c r="B144" t="s">
-        <v>753</v>
+        <v>618</v>
       </c>
       <c r="C144" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="D144" t="s">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="E144" t="s">
-        <v>637</v>
+        <v>621</v>
       </c>
       <c r="F144" t="s">
-        <v>638</v>
+        <v>622</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="10" t="s">
-        <v>691</v>
+        <v>612</v>
       </c>
       <c r="B145" t="s">
-        <v>686</v>
+        <v>623</v>
       </c>
       <c r="C145" t="s">
-        <v>687</v>
+        <v>624</v>
       </c>
       <c r="D145" t="s">
-        <v>688</v>
+        <v>625</v>
       </c>
       <c r="E145" t="s">
-        <v>689</v>
+        <v>626</v>
       </c>
       <c r="F145" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="10" t="s">
-        <v>656</v>
-      </c>
-      <c r="B146" t="s">
-        <v>752</v>
-      </c>
-      <c r="C146" t="s">
-        <v>651</v>
-      </c>
-      <c r="D146" t="s">
-        <v>652</v>
-      </c>
-      <c r="E146" t="s">
-        <v>653</v>
-      </c>
-      <c r="F146" t="s">
-        <v>654</v>
+        <v>627</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="10" t="s">
-        <v>662</v>
+        <v>739</v>
       </c>
       <c r="B147" t="s">
-        <v>657</v>
+        <v>689</v>
       </c>
       <c r="C147" t="s">
-        <v>658</v>
+        <v>690</v>
       </c>
       <c r="D147" t="s">
-        <v>659</v>
+        <v>691</v>
       </c>
       <c r="E147" t="s">
-        <v>660</v>
+        <v>692</v>
       </c>
       <c r="F147" t="s">
-        <v>661</v>
+        <v>693</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="10" t="s">
-        <v>663</v>
+        <v>740</v>
       </c>
       <c r="B148" t="s">
-        <v>664</v>
+        <v>734</v>
       </c>
       <c r="C148" t="s">
-        <v>671</v>
+        <v>735</v>
       </c>
       <c r="D148" t="s">
-        <v>672</v>
+        <v>736</v>
       </c>
       <c r="E148" t="s">
-        <v>672</v>
+        <v>737</v>
       </c>
       <c r="F148" t="s">
-        <v>679</v>
+        <v>738</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="10" t="s">
-        <v>681</v>
+        <v>741</v>
       </c>
       <c r="B149" t="s">
-        <v>680</v>
+        <v>700</v>
       </c>
       <c r="C149" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="D149" t="s">
-        <v>683</v>
+        <v>702</v>
       </c>
       <c r="E149" t="s">
-        <v>684</v>
+        <v>703</v>
       </c>
       <c r="F149" t="s">
-        <v>685</v>
+        <v>704</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="10" t="s">
-        <v>665</v>
+        <v>742</v>
       </c>
       <c r="B150" t="s">
-        <v>666</v>
+        <v>729</v>
       </c>
       <c r="C150" t="s">
-        <v>667</v>
+        <v>730</v>
       </c>
       <c r="D150" t="s">
-        <v>668</v>
+        <v>731</v>
       </c>
       <c r="E150" t="s">
-        <v>669</v>
+        <v>732</v>
       </c>
       <c r="F150" t="s">
-        <v>670</v>
+        <v>733</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="10" t="s">
+        <v>743</v>
+      </c>
+      <c r="B151" t="s">
+        <v>694</v>
+      </c>
+      <c r="C151" t="s">
+        <v>695</v>
+      </c>
+      <c r="D151" t="s">
+        <v>696</v>
+      </c>
+      <c r="E151" t="s">
+        <v>697</v>
+      </c>
+      <c r="F151" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="10" t="s">
+        <v>744</v>
+      </c>
+      <c r="B152" t="s">
+        <v>724</v>
+      </c>
+      <c r="C152" t="s">
+        <v>725</v>
+      </c>
+      <c r="D152" t="s">
+        <v>726</v>
+      </c>
+      <c r="E152" t="s">
+        <v>727</v>
+      </c>
+      <c r="F152" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="10" t="s">
+        <v>745</v>
+      </c>
+      <c r="B153" t="s">
+        <v>699</v>
+      </c>
+      <c r="C153" t="s">
+        <v>705</v>
+      </c>
+      <c r="D153" t="s">
+        <v>706</v>
+      </c>
+      <c r="E153" t="s">
+        <v>707</v>
+      </c>
+      <c r="F153" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="10" t="s">
+        <v>746</v>
+      </c>
+      <c r="B154" t="s">
+        <v>719</v>
+      </c>
+      <c r="C154" t="s">
+        <v>720</v>
+      </c>
+      <c r="D154" t="s">
+        <v>721</v>
+      </c>
+      <c r="E154" t="s">
+        <v>722</v>
+      </c>
+      <c r="F154" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="10" t="s">
+        <v>747</v>
+      </c>
+      <c r="B155" t="s">
+        <v>709</v>
+      </c>
+      <c r="C155" t="s">
+        <v>710</v>
+      </c>
+      <c r="D155" t="s">
+        <v>711</v>
+      </c>
+      <c r="E155" t="s">
+        <v>712</v>
+      </c>
+      <c r="F155" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="B156" t="s">
+        <v>714</v>
+      </c>
+      <c r="C156" t="s">
+        <v>715</v>
+      </c>
+      <c r="D156" t="s">
+        <v>716</v>
+      </c>
+      <c r="E156" t="s">
+        <v>717</v>
+      </c>
+      <c r="F156" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="17" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="10" t="s">
+        <v>652</v>
+      </c>
+      <c r="B159" t="s">
+        <v>750</v>
+      </c>
+      <c r="C159" t="s">
+        <v>634</v>
+      </c>
+      <c r="D159" t="s">
+        <v>635</v>
+      </c>
+      <c r="E159" t="s">
+        <v>636</v>
+      </c>
+      <c r="F159" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="B160" t="s">
+        <v>683</v>
+      </c>
+      <c r="C160" t="s">
+        <v>684</v>
+      </c>
+      <c r="D160" t="s">
+        <v>685</v>
+      </c>
+      <c r="E160" t="s">
+        <v>686</v>
+      </c>
+      <c r="F160" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="10" t="s">
+        <v>653</v>
+      </c>
+      <c r="B161" t="s">
+        <v>749</v>
+      </c>
+      <c r="C161" t="s">
+        <v>648</v>
+      </c>
+      <c r="D161" t="s">
+        <v>649</v>
+      </c>
+      <c r="E161" t="s">
+        <v>650</v>
+      </c>
+      <c r="F161" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="10" t="s">
+        <v>659</v>
+      </c>
+      <c r="B162" t="s">
+        <v>654</v>
+      </c>
+      <c r="C162" t="s">
+        <v>655</v>
+      </c>
+      <c r="D162" t="s">
+        <v>656</v>
+      </c>
+      <c r="E162" t="s">
+        <v>657</v>
+      </c>
+      <c r="F162" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="10" t="s">
+        <v>660</v>
+      </c>
+      <c r="B163" t="s">
+        <v>661</v>
+      </c>
+      <c r="C163" t="s">
+        <v>668</v>
+      </c>
+      <c r="D163" t="s">
+        <v>669</v>
+      </c>
+      <c r="E163" t="s">
+        <v>669</v>
+      </c>
+      <c r="F163" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="10" t="s">
+        <v>678</v>
+      </c>
+      <c r="B164" t="s">
+        <v>677</v>
+      </c>
+      <c r="C164" t="s">
+        <v>679</v>
+      </c>
+      <c r="D164" t="s">
+        <v>680</v>
+      </c>
+      <c r="E164" t="s">
+        <v>681</v>
+      </c>
+      <c r="F164" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="10" t="s">
+        <v>781</v>
+      </c>
+      <c r="B165" t="s">
+        <v>778</v>
+      </c>
+      <c r="C165" t="s">
+        <v>782</v>
+      </c>
+      <c r="D165" t="s">
+        <v>783</v>
+      </c>
+      <c r="E165" t="s">
+        <v>784</v>
+      </c>
+      <c r="F165" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="10" t="s">
+        <v>662</v>
+      </c>
+      <c r="B166" t="s">
+        <v>663</v>
+      </c>
+      <c r="C166" t="s">
+        <v>664</v>
+      </c>
+      <c r="D166" t="s">
+        <v>665</v>
+      </c>
+      <c r="E166" t="s">
+        <v>666</v>
+      </c>
+      <c r="F166" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="10" t="s">
+        <v>671</v>
+      </c>
+      <c r="B167" t="s">
+        <v>670</v>
+      </c>
+      <c r="C167" t="s">
+        <v>672</v>
+      </c>
+      <c r="D167" t="s">
+        <v>673</v>
+      </c>
+      <c r="E167" t="s">
         <v>674</v>
       </c>
-      <c r="B151" t="s">
-        <v>673</v>
-      </c>
-      <c r="C151" t="s">
+      <c r="F167" t="s">
         <v>675</v>
       </c>
-      <c r="D151" t="s">
-        <v>676</v>
-      </c>
-      <c r="E151" t="s">
-        <v>677</v>
-      </c>
-      <c r="F151" t="s">
-        <v>678</v>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="10" t="s">
+        <v>780</v>
+      </c>
+      <c r="B168" t="s">
+        <v>779</v>
+      </c>
+      <c r="C168" t="s">
+        <v>786</v>
+      </c>
+      <c r="D168" t="s">
+        <v>787</v>
+      </c>
+      <c r="E168" t="s">
+        <v>788</v>
+      </c>
+      <c r="F168" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="10" t="s">
+        <v>774</v>
+      </c>
+      <c r="B169" t="s">
+        <v>776</v>
+      </c>
+      <c r="C169" t="s">
+        <v>790</v>
+      </c>
+      <c r="D169" t="s">
+        <v>791</v>
+      </c>
+      <c r="E169" t="s">
+        <v>792</v>
+      </c>
+      <c r="F169" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="10" t="s">
+        <v>775</v>
+      </c>
+      <c r="B170" t="s">
+        <v>777</v>
+      </c>
+      <c r="C170" t="s">
+        <v>794</v>
+      </c>
+      <c r="D170" t="s">
+        <v>795</v>
+      </c>
+      <c r="E170" t="s">
+        <v>796</v>
+      </c>
+      <c r="F170" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="17" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="10" t="s">
+        <v>857</v>
+      </c>
+      <c r="B173" t="s">
+        <v>826</v>
+      </c>
+      <c r="C173" t="s">
+        <v>832</v>
+      </c>
+      <c r="D173" t="s">
+        <v>834</v>
+      </c>
+      <c r="E173" t="s">
+        <v>835</v>
+      </c>
+      <c r="F173" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="10" t="s">
+        <v>856</v>
+      </c>
+      <c r="B174" t="s">
+        <v>855</v>
+      </c>
+      <c r="C174" t="s">
+        <v>859</v>
+      </c>
+      <c r="D174" t="s">
+        <v>860</v>
+      </c>
+      <c r="E174" t="s">
+        <v>861</v>
+      </c>
+      <c r="F174" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="10" t="s">
+        <v>858</v>
+      </c>
+      <c r="B175" t="s">
+        <v>830</v>
+      </c>
+      <c r="C175" t="s">
+        <v>837</v>
+      </c>
+      <c r="D175" t="s">
+        <v>838</v>
+      </c>
+      <c r="E175" t="s">
+        <v>839</v>
+      </c>
+      <c r="F175" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="10" t="s">
+        <v>863</v>
+      </c>
+      <c r="B176" t="s">
+        <v>831</v>
+      </c>
+      <c r="C176" t="s">
+        <v>841</v>
+      </c>
+      <c r="D176" t="s">
+        <v>842</v>
+      </c>
+      <c r="E176" t="s">
+        <v>843</v>
+      </c>
+      <c r="F176" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="10" t="s">
+        <v>864</v>
+      </c>
+      <c r="B177" t="s">
+        <v>827</v>
+      </c>
+      <c r="C177" t="s">
+        <v>845</v>
+      </c>
+      <c r="D177" t="s">
+        <v>846</v>
+      </c>
+      <c r="E177" t="s">
+        <v>845</v>
+      </c>
+      <c r="F177" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="10" t="s">
+        <v>865</v>
+      </c>
+      <c r="B178" t="s">
+        <v>828</v>
+      </c>
+      <c r="C178" t="s">
+        <v>848</v>
+      </c>
+      <c r="D178" t="s">
+        <v>849</v>
+      </c>
+      <c r="E178" t="s">
+        <v>850</v>
+      </c>
+      <c r="F178" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="10" t="s">
+        <v>866</v>
+      </c>
+      <c r="B179" t="s">
+        <v>829</v>
+      </c>
+      <c r="C179" t="s">
+        <v>852</v>
+      </c>
+      <c r="D179" t="s">
+        <v>853</v>
+      </c>
+      <c r="E179" t="s">
+        <v>853</v>
+      </c>
+      <c r="F179" t="s">
+        <v>854</v>
       </c>
     </row>
   </sheetData>
